--- a/100runs/run080/NotionalETEOutput080.xlsx
+++ b/100runs/run080/NotionalETEOutput080.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_44.MISSILE_BRAVER_44</t>
+    <t>MISSILE_SOMERSAULT_273.MISSILE_SOMERSAULT_273</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_207.MISSILE_SOMERSAULT_207</t>
+    <t>MISSILE_SOMERSAULT_439.MISSILE_SOMERSAULT_439</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_54.MISSILE_BRAVER_54</t>
+    <t>MISSILE_SOMERSAULT_49.MISSILE_SOMERSAULT_49</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_369.MISSILE_HELLMASKER_369</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HELLMASKER_246.MISSILE_HELLMASKER_246</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
@@ -483,31 +477,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G2">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H2">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I2">
-        <v>-1822.227275315565</v>
+        <v>1114864.525981846</v>
       </c>
       <c r="J2">
-        <v>2208.357371251466</v>
+        <v>4843222.965513892</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.917036614</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G3">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H3">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I3">
-        <v>-1786.251656788271</v>
+        <v>1114894.140062476</v>
       </c>
       <c r="J3">
-        <v>2154.637324500215</v>
+        <v>4843174.313928762</v>
       </c>
       <c r="K3">
-        <v>473.2804042863474</v>
+        <v>3984668.712616541</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G4">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H4">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I4">
-        <v>-1749.390171751704</v>
+        <v>1114924.483362596</v>
       </c>
       <c r="J4">
-        <v>2100.917277748963</v>
+        <v>4843125.662343631</v>
       </c>
       <c r="K4">
-        <v>922.9608781754869</v>
+        <v>3984957.359556305</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G5">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H5">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I5">
-        <v>-1711.621006558056</v>
+        <v>1114955.573838568</v>
       </c>
       <c r="J5">
-        <v>2047.197230997712</v>
+        <v>4843077.010758501</v>
       </c>
       <c r="K5">
-        <v>1349.041421667422</v>
+        <v>3985230.857855904</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G6">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H6">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I6">
-        <v>-1672.921810418509</v>
+        <v>1114987.429888907</v>
       </c>
       <c r="J6">
-        <v>1993.477184246461</v>
+        <v>4843028.359173371</v>
       </c>
       <c r="K6">
-        <v>1751.522034762149</v>
+        <v>3985489.207515339</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G7">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H7">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I7">
-        <v>-1633.269682176634</v>
+        <v>1115020.070365179</v>
       </c>
       <c r="J7">
-        <v>1939.757137495209</v>
+        <v>4842979.707588241</v>
       </c>
       <c r="K7">
-        <v>2130.402717459672</v>
+        <v>3985732.408534611</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G8">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H8">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I8">
-        <v>-1592.641156756091</v>
+        <v>1115053.51458315</v>
       </c>
       <c r="J8">
-        <v>1886.037090743958</v>
+        <v>4842931.05600311</v>
       </c>
       <c r="K8">
-        <v>2485.683469759989</v>
+        <v>3985960.460913717</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G9">
-        <v>-142.0315631100584</v>
+        <v>4841124.027272048</v>
       </c>
       <c r="H9">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I9">
-        <v>-1551.012191274625</v>
+        <v>1115087.782334221</v>
       </c>
       <c r="J9">
-        <v>1832.317043992706</v>
+        <v>4842882.40441798</v>
       </c>
       <c r="K9">
-        <v>2817.364291663099</v>
+        <v>3986173.36465266</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>233.9853343496226</v>
+        <v>1116578.103612286</v>
       </c>
       <c r="G10">
-        <v>-118.5781541151077</v>
+        <v>4841140.540089431</v>
       </c>
       <c r="H10">
-        <v>458.654499899448</v>
+        <v>3985227.888356023</v>
       </c>
       <c r="I10">
-        <v>-1508.358150816125</v>
+        <v>1115122.893897136</v>
       </c>
       <c r="J10">
-        <v>1778.596997241455</v>
+        <v>4842833.75283285</v>
       </c>
       <c r="K10">
-        <v>3125.445183169003</v>
+        <v>3986371.119751438</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>181.5999153557894</v>
+        <v>1116529.423065966</v>
       </c>
       <c r="G11">
-        <v>-95.1247451201569</v>
+        <v>4841157.052906812</v>
       </c>
       <c r="H11">
-        <v>565.0592575643899</v>
+        <v>3985427.142740799</v>
       </c>
       <c r="I11">
-        <v>-1464.653793852331</v>
+        <v>1115158.870049986</v>
       </c>
       <c r="J11">
-        <v>1724.876950490204</v>
+        <v>4842785.10124772</v>
       </c>
       <c r="K11">
-        <v>3409.926144277699</v>
+        <v>3986553.726210053</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>150.8261096332102</v>
+        <v>1116500.825687082</v>
       </c>
       <c r="G12">
-        <v>-71.67133612520615</v>
+        <v>4841173.565724195</v>
       </c>
       <c r="H12">
-        <v>628.4393729755277</v>
+        <v>3985545.828842627</v>
       </c>
       <c r="I12">
-        <v>-1419.873257305576</v>
+        <v>1115195.732082503</v>
       </c>
       <c r="J12">
-        <v>1671.156903738952</v>
+        <v>4842736.449662589</v>
       </c>
       <c r="K12">
-        <v>3670.807174989191</v>
+        <v>3986721.184028503</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>131.3994257805024</v>
+        <v>1116482.772923521</v>
       </c>
       <c r="G13">
-        <v>-48.21792713025539</v>
+        <v>4841190.078541578</v>
       </c>
       <c r="H13">
-        <v>673.7328577616298</v>
+        <v>3985630.645777917</v>
       </c>
       <c r="I13">
-        <v>-1373.990041243694</v>
+        <v>1115233.501808657</v>
       </c>
       <c r="J13">
-        <v>1617.436856987701</v>
+        <v>4842687.798077459</v>
       </c>
       <c r="K13">
-        <v>3908.088275303478</v>
+        <v>3986873.49320679</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>117.8513353191634</v>
+        <v>1116470.182999494</v>
       </c>
       <c r="G14">
-        <v>-24.76451813530463</v>
+        <v>4841206.591358959</v>
       </c>
       <c r="H14">
-        <v>709.0028700985653</v>
+        <v>3985696.692679985</v>
       </c>
       <c r="I14">
-        <v>-1326.976993198073</v>
+        <v>1115272.201579571</v>
       </c>
       <c r="J14">
-        <v>1563.716810236449</v>
+        <v>4842639.146492328</v>
       </c>
       <c r="K14">
-        <v>4121.769445220558</v>
+        <v>3987010.653744912</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>107.7440541159865</v>
+        <v>1116460.790539145</v>
       </c>
       <c r="G15">
-        <v>-1.311109140353882</v>
+        <v>4841223.104176342</v>
       </c>
       <c r="H15">
-        <v>737.8917459940443</v>
+        <v>3985750.790215846</v>
       </c>
       <c r="I15">
-        <v>-1278.806292095541</v>
+        <v>1115311.85429674</v>
       </c>
       <c r="J15">
-        <v>1509.996763485198</v>
+        <v>4842590.494907198</v>
       </c>
       <c r="K15">
-        <v>4311.850684740431</v>
+        <v>3987132.66564287</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>99.8415716550775</v>
+        <v>1116453.44694677</v>
       </c>
       <c r="G16">
-        <v>22.14229985459688</v>
+        <v>4841239.616993723</v>
       </c>
       <c r="H16">
-        <v>762.3585150917826</v>
+        <v>3985796.60687979</v>
       </c>
       <c r="I16">
-        <v>-1229.44943179459</v>
+        <v>1115352.48342559</v>
       </c>
       <c r="J16">
-        <v>1456.276716733946</v>
+        <v>4842541.843322068</v>
       </c>
       <c r="K16">
-        <v>4478.331993863098</v>
+        <v>3987239.528900664</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>93.44788794558681</v>
+        <v>1116447.505445834</v>
       </c>
       <c r="G17">
-        <v>45.59570884954765</v>
+        <v>4841256.129811105</v>
       </c>
       <c r="H17">
-        <v>783.5789812213333</v>
+        <v>3985836.344491303</v>
       </c>
       <c r="I17">
-        <v>-1178.877204216208</v>
+        <v>1115394.11300936</v>
       </c>
       <c r="J17">
-        <v>1402.556669982695</v>
+        <v>4842493.191736938</v>
       </c>
       <c r="K17">
-        <v>4621.213372588559</v>
+        <v>3987331.243518293</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>88.13885226957667</v>
+        <v>1116442.571882982</v>
       </c>
       <c r="G18">
-        <v>69.04911784449838</v>
+        <v>4841272.642628488</v>
       </c>
       <c r="H18">
-        <v>802.3145529701197</v>
+        <v>3985871.428870086</v>
       </c>
       <c r="I18">
-        <v>-1127.059682059304</v>
+        <v>1115436.767683331</v>
       </c>
       <c r="J18">
-        <v>1348.836623231444</v>
+        <v>4842444.540151807</v>
       </c>
       <c r="K18">
-        <v>4740.494820916815</v>
+        <v>3987407.809495759</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>83.6398439894601</v>
+        <v>1116438.391059669</v>
       </c>
       <c r="G19">
-        <v>92.50252683944917</v>
+        <v>4841289.155445869</v>
       </c>
       <c r="H19">
-        <v>819.0866598233796</v>
+        <v>3985902.836449087</v>
       </c>
       <c r="I19">
-        <v>-1073.966201090533</v>
+        <v>1115480.472689407</v>
       </c>
       <c r="J19">
-        <v>1295.116576480192</v>
+        <v>4842395.888566677</v>
       </c>
       <c r="K19">
-        <v>4836.176338847864</v>
+        <v>3987469.22683306</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>79.76438728103545</v>
+        <v>1116434.789688268</v>
       </c>
       <c r="G20">
-        <v>115.9559358343999</v>
+        <v>4841305.668263252</v>
       </c>
       <c r="H20">
-        <v>834.268080313831</v>
+        <v>3985931.265296313</v>
       </c>
       <c r="I20">
-        <v>-1019.565341998012</v>
+        <v>1115525.253891051</v>
       </c>
       <c r="J20">
-        <v>1241.396529728941</v>
+        <v>4842347.236981547</v>
       </c>
       <c r="K20">
-        <v>4908.257926381707</v>
+        <v>3987515.495530198</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>76.38091332301104</v>
+        <v>1116431.645504946</v>
       </c>
       <c r="G21">
-        <v>139.4093448293507</v>
+        <v>4841322.181080635</v>
       </c>
       <c r="H21">
-        <v>848.1345744846401</v>
+        <v>3985957.231802188</v>
       </c>
       <c r="I21">
-        <v>-963.8249117982109</v>
+        <v>1115571.137788586</v>
       </c>
       <c r="J21">
-        <v>1187.676482977689</v>
+        <v>4842298.585396416</v>
       </c>
       <c r="K21">
-        <v>4956.739583518343</v>
+        <v>3987546.615587171</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>73.39362560579214</v>
+        <v>1116428.869488243</v>
       </c>
       <c r="G22">
-        <v>162.8627538243014</v>
+        <v>4841338.693898016</v>
       </c>
       <c r="H22">
-        <v>860.895879106518</v>
+        <v>3985981.128721435</v>
       </c>
       <c r="I22">
-        <v>-906.7119247849949</v>
+        <v>1115618.151534886</v>
       </c>
       <c r="J22">
-        <v>1133.956436226438</v>
+        <v>4842249.933811286</v>
       </c>
       <c r="K22">
-        <v>4981.621310257775</v>
+        <v>3987562.58700398</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>70.73091588879198</v>
+        <v>1116426.395094295</v>
       </c>
       <c r="G23">
-        <v>186.3161628192522</v>
+        <v>4841355.206715398</v>
       </c>
       <c r="H23">
-        <v>872.7152353862531</v>
+        <v>3986003.261740819</v>
       </c>
       <c r="I23">
-        <v>-848.1925830095631</v>
+        <v>1115666.322951437</v>
       </c>
       <c r="J23">
-        <v>1080.236389475187</v>
+        <v>4842201.282226156</v>
       </c>
       <c r="K23">
-        <v>4982.903106599999</v>
+        <v>3987563.409780625</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>68.33805068898627</v>
+        <v>1116424.171460555</v>
       </c>
       <c r="G24">
-        <v>209.769571814203</v>
+        <v>4841371.71953278</v>
       </c>
       <c r="H24">
-        <v>883.7221914905846</v>
+        <v>3986023.873453255</v>
       </c>
       <c r="I24">
-        <v>-788.2322562797187</v>
+        <v>1115715.680544804</v>
       </c>
       <c r="J24">
-        <v>1026.516342723935</v>
+        <v>4842152.630641025</v>
       </c>
       <c r="K24">
-        <v>4960.584972545018</v>
+        <v>3987549.083917105</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>66.17238699915114</v>
+        <v>1116422.15895987</v>
       </c>
       <c r="G25">
-        <v>233.2229808091537</v>
+        <v>4841388.232350162</v>
       </c>
       <c r="H25">
-        <v>894.0212809926487</v>
+        <v>3986043.159609133</v>
       </c>
       <c r="I25">
-        <v>-726.7954616666406</v>
+        <v>1115766.253523499</v>
       </c>
       <c r="J25">
-        <v>972.7962959726838</v>
+        <v>4842103.979055895</v>
       </c>
       <c r="K25">
-        <v>4914.66690809283</v>
+        <v>3987519.609413422</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>64.20014583359996</v>
+        <v>1116420.32620222</v>
       </c>
       <c r="G26">
-        <v>256.6763898041045</v>
+        <v>4841404.745167545</v>
       </c>
       <c r="H26">
-        <v>903.6980753892278</v>
+        <v>3986061.28045031</v>
       </c>
       <c r="I26">
-        <v>-663.8458425070303</v>
+        <v>1115818.071815268</v>
       </c>
       <c r="J26">
-        <v>919.0762492214322</v>
+        <v>4842055.327470765</v>
       </c>
       <c r="K26">
-        <v>4845.148913243437</v>
+        <v>3987474.986269575</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>62.3941782189214</v>
+        <v>1116418.647958698</v>
       </c>
       <c r="G27">
-        <v>280.1297987990552</v>
+        <v>4841421.257984926</v>
       </c>
       <c r="H27">
-        <v>912.8235099888838</v>
+        <v>3986078.3688108</v>
       </c>
       <c r="I27">
-        <v>-599.3461468882024</v>
+        <v>1115871.166084799</v>
       </c>
       <c r="J27">
-        <v>865.3562024701807</v>
+        <v>4842006.675885634</v>
       </c>
       <c r="K27">
-        <v>4752.030987996837</v>
+        <v>3987415.214485563</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>60.73238227388221</v>
+        <v>1116417.10369054</v>
       </c>
       <c r="G28">
-        <v>303.583207794006</v>
+        <v>4841437.770802309</v>
       </c>
       <c r="H28">
-        <v>921.4570424779911</v>
+        <v>3986094.536031537</v>
       </c>
       <c r="I28">
-        <v>-533.2582056033931</v>
+        <v>1115925.567751873</v>
       </c>
       <c r="J28">
-        <v>811.6361557189294</v>
+        <v>4841958.024300504</v>
       </c>
       <c r="K28">
-        <v>4635.313132353032</v>
+        <v>3987340.294061387</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>59.1965585792957</v>
+        <v>1116415.676485452</v>
       </c>
       <c r="G29">
-        <v>327.0366167889568</v>
+        <v>4841454.283619691</v>
       </c>
       <c r="H29">
-        <v>929.6490028830473</v>
+        <v>3986109.876360921</v>
       </c>
       <c r="I29">
-        <v>-465.5429095642357</v>
+        <v>1115981.309009949</v>
       </c>
       <c r="J29">
-        <v>757.9161089676779</v>
+        <v>4841909.372715374</v>
       </c>
       <c r="K29">
-        <v>4494.99534631202</v>
+        <v>3987250.224997047</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>57.77156738953328</v>
+        <v>1116414.352274423</v>
       </c>
       <c r="G30">
-        <v>350.4900257839075</v>
+        <v>4841470.796437073</v>
       </c>
       <c r="H30">
-        <v>937.4423712829451</v>
+        <v>3986124.470283786</v>
       </c>
       <c r="I30">
-        <v>-396.1601866570444</v>
+        <v>1116038.422845225</v>
       </c>
       <c r="J30">
-        <v>704.1960622164264</v>
+        <v>4841860.721130244</v>
       </c>
       <c r="K30">
-        <v>4331.077629873802</v>
+        <v>3987145.007292544</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>56.44469797980292</v>
+        <v>1116413.119245671</v>
       </c>
       <c r="G31">
-        <v>373.9434347788583</v>
+        <v>4841487.309254455</v>
       </c>
       <c r="H31">
-        <v>944.8741427551987</v>
+        <v>3986138.387077405</v>
       </c>
       <c r="I31">
-        <v>-325.0689780291983</v>
+        <v>1116096.94305615</v>
       </c>
       <c r="J31">
-        <v>650.4760154651751</v>
+        <v>4841812.069545113</v>
       </c>
       <c r="K31">
-        <v>4143.559983038379</v>
+        <v>3987024.640947875</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>55.20518982209583</v>
+        <v>1116411.967399691</v>
       </c>
       <c r="G32">
-        <v>397.3968437738091</v>
+        <v>4841503.822071837</v>
       </c>
       <c r="H32">
-        <v>951.9763894782504</v>
+        <v>3986151.686800391</v>
       </c>
       <c r="I32">
-        <v>-252.2272137916042</v>
+        <v>1116156.904273432</v>
       </c>
       <c r="J32">
-        <v>596.7559687139236</v>
+        <v>4841763.417959983</v>
       </c>
       <c r="K32">
-        <v>3932.442405805748</v>
+        <v>3986889.125963043</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>54.04386422530761</v>
+        <v>1116410.888206939</v>
       </c>
       <c r="G33">
-        <v>420.8502527687597</v>
+        <v>4841520.334889219</v>
       </c>
       <c r="H33">
-        <v>958.7770972067246</v>
+        <v>3986164.421859088</v>
       </c>
       <c r="I33">
-        <v>-177.5917881228532</v>
+        <v>1116218.341980526</v>
       </c>
       <c r="J33">
-        <v>543.0359219626723</v>
+        <v>4841714.766374853</v>
       </c>
       <c r="K33">
-        <v>3697.724898175913</v>
+        <v>3986738.462338046</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>52.95283754881811</v>
+        <v>1116409.874341331</v>
       </c>
       <c r="G34">
-        <v>444.3036617637105</v>
+        <v>4841536.847706601</v>
       </c>
       <c r="H34">
-        <v>965.3008313002343</v>
+        <v>3986176.638254781</v>
       </c>
       <c r="I34">
-        <v>-101.1185337603417</v>
+        <v>1116281.292534636</v>
       </c>
       <c r="J34">
-        <v>489.3158752114209</v>
+        <v>4841666.114789722</v>
       </c>
       <c r="K34">
-        <v>3439.40746014887</v>
+        <v>3986572.650072886</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>51.92529547623088</v>
+        <v>1116408.919470483</v>
       </c>
       <c r="G35">
-        <v>467.7570707586613</v>
+        <v>4841553.360523983</v>
       </c>
       <c r="H35">
-        <v>971.5692723565651</v>
+        <v>3986188.376586727</v>
       </c>
       <c r="I35">
-        <v>-22.76219586325771</v>
+        <v>1116345.793188227</v>
       </c>
       <c r="J35">
-        <v>435.5958284601693</v>
+        <v>4841617.463204592</v>
       </c>
       <c r="K35">
-        <v>3157.490091724621</v>
+        <v>3986391.689167561</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>50.95531356392363</v>
+        <v>1116408.018088948</v>
       </c>
       <c r="G36">
-        <v>491.2104797536121</v>
+        <v>4841569.873341366</v>
       </c>
       <c r="H36">
-        <v>977.6016509331131</v>
+        <v>3986199.672866221</v>
       </c>
       <c r="I36">
-        <v>57.52359476803317</v>
+        <v>1116411.882111073</v>
       </c>
       <c r="J36">
-        <v>381.8757817089181</v>
+        <v>4841568.811619462</v>
       </c>
       <c r="K36">
-        <v>2851.972792903167</v>
+        <v>3986195.579622073</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>50.03771326011719</v>
+        <v>1116407.165384418</v>
       </c>
       <c r="G37">
-        <v>514.6638887485628</v>
+        <v>4841586.386158748</v>
       </c>
       <c r="H37">
-        <v>983.4151033443677</v>
+        <v>3986210.559182858</v>
       </c>
       <c r="I37">
-        <v>139.7863491320464</v>
+        <v>1116479.598412844</v>
       </c>
       <c r="J37">
-        <v>328.1557349576665</v>
+        <v>4841520.160034331</v>
       </c>
       <c r="K37">
-        <v>2522.855563684507</v>
+        <v>3985984.321436419</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>49.16794539890167</v>
+        <v>1116406.357129459</v>
       </c>
       <c r="G38">
-        <v>538.1172977435136</v>
+        <v>4841602.898976129</v>
       </c>
       <c r="H38">
-        <v>989.0249651291093</v>
+        <v>3986221.064254089</v>
       </c>
       <c r="I38">
-        <v>224.074748141928</v>
+        <v>1116548.982166248</v>
       </c>
       <c r="J38">
-        <v>274.4356882064153</v>
+        <v>4841471.508449201</v>
       </c>
       <c r="K38">
-        <v>2170.138404068641</v>
+        <v>3985757.914610602</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>48.34199518287172</v>
+        <v>1116405.589593215</v>
       </c>
       <c r="G39">
-        <v>561.5707067384643</v>
+        <v>4841619.411793511</v>
       </c>
       <c r="H39">
-        <v>994.4450148481445</v>
+        <v>3986231.213881755</v>
       </c>
       <c r="I39">
-        <v>310.4386714335217</v>
+        <v>1116620.074430747</v>
       </c>
       <c r="J39">
-        <v>220.7156414551638</v>
+        <v>4841422.85686407</v>
       </c>
       <c r="K39">
-        <v>1793.821314055567</v>
+        <v>3985516.359144621</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>47.55630412374404</v>
+        <v>1116404.859468865</v>
       </c>
       <c r="G40">
-        <v>585.0241157334151</v>
+        <v>4841635.924610894</v>
       </c>
       <c r="H40">
-        <v>999.6876779710541</v>
+        <v>3986241.031333888</v>
       </c>
       <c r="I40">
-        <v>398.9292268828193</v>
+        <v>1116692.917276857</v>
       </c>
       <c r="J40">
-        <v>166.9955947039123</v>
+        <v>4841374.20527894</v>
       </c>
       <c r="K40">
-        <v>1393.904293645288</v>
+        <v>3985259.655038476</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>46.8077054775733</v>
+        <v>1116404.163813628</v>
       </c>
       <c r="G41">
-        <v>608.4775247283659</v>
+        <v>4841652.437428276</v>
       </c>
       <c r="H41">
-        <v>1004.764198444391</v>
+        <v>3986250.537665991</v>
       </c>
       <c r="I41">
-        <v>489.5987808502361</v>
+        <v>1116767.553811037</v>
       </c>
       <c r="J41">
-        <v>113.275547952661</v>
+        <v>4841325.55369381</v>
       </c>
       <c r="K41">
-        <v>970.3873428378043</v>
+        <v>3984987.802292166</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>46.09337050226439</v>
+        <v>1116403.49999882</v>
       </c>
       <c r="G42">
-        <v>631.9309337233166</v>
+        <v>4841668.950245658</v>
       </c>
       <c r="H42">
-        <v>1009.684783900356</v>
+        <v>3986259.751992956</v>
       </c>
       <c r="I42">
-        <v>582.5009891696425</v>
+        <v>1116844.028201208</v>
       </c>
       <c r="J42">
-        <v>59.55550120140948</v>
+        <v>4841276.90210868</v>
       </c>
       <c r="K42">
-        <v>523.2704616331127</v>
+        <v>3984700.800905692</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>45.41076345747104</v>
+        <v>1116402.865668036</v>
       </c>
       <c r="G43">
-        <v>655.3843427182674</v>
+        <v>4841685.463063041</v>
       </c>
       <c r="H43">
-        <v>1014.458729221241</v>
+        <v>3986268.691720453</v>
       </c>
       <c r="I43">
-        <v>677.6908289004489</v>
+        <v>1116922.385702881</v>
       </c>
       <c r="J43">
-        <v>5.835454450157964</v>
+        <v>4841228.250523549</v>
       </c>
       <c r="K43">
-        <v>52.55365003121535</v>
+        <v>3984398.650879055</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>44.75760371484842</v>
+        <v>1116402.258701943</v>
       </c>
       <c r="G44">
-        <v>678.8377517132182</v>
+        <v>4841701.975880423</v>
       </c>
       <c r="H44">
-        <v>1019.094522219265</v>
+        <v>3986277.372742825</v>
       </c>
       <c r="I44">
-        <v>775.2246308615789</v>
+        <v>1117002.672685945</v>
       </c>
       <c r="J44">
-        <v>-47.8845923010933</v>
+        <v>4841179.598938419</v>
       </c>
       <c r="K44">
-        <v>-441.7630919678867</v>
+        <v>3984081.352212253</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>44.13183368827475</v>
+        <v>1116401.677188473</v>
       </c>
       <c r="G45">
-        <v>702.2911607081688</v>
+        <v>4841718.488697805</v>
       </c>
       <c r="H45">
-        <v>1023.59993445094</v>
+        <v>3986285.80961315</v>
       </c>
       <c r="I45">
-        <v>875.1601129665497</v>
+        <v>1117084.936662104</v>
       </c>
       <c r="J45">
-        <v>-101.6046390523448</v>
+        <v>4841130.947353289</v>
       </c>
       <c r="K45">
-        <v>-959.6797643641962</v>
+        <v>3983748.904905287</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>43.5315915564641</v>
+        <v>1116401.11939748</v>
       </c>
       <c r="G46">
-        <v>725.7445697031197</v>
+        <v>4841735.001515186</v>
       </c>
       <c r="H46">
-        <v>1027.982099606719</v>
+        <v>3986294.015690033</v>
       </c>
       <c r="I46">
-        <v>977.5564143793985</v>
+        <v>1117169.226312995</v>
       </c>
       <c r="J46">
-        <v>-155.3246858035963</v>
+        <v>4841082.295768158</v>
       </c>
       <c r="K46">
-        <v>-1501.196367157713</v>
+        <v>3983401.308958157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>42.95518795416015</v>
+        <v>1116400.583759075</v>
       </c>
       <c r="G47">
-        <v>749.1979786980704</v>
+        <v>4841751.514332568</v>
       </c>
       <c r="H47">
-        <v>1032.247581461568</v>
+        <v>3986302.00326485</v>
       </c>
       <c r="I47">
-        <v>1082.474130511668</v>
+        <v>1117255.591518994</v>
       </c>
       <c r="J47">
-        <v>-209.0447325548479</v>
+        <v>4841033.644183028</v>
       </c>
       <c r="K47">
-        <v>-2066.312900348435</v>
+        <v>3983038.564370862</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>42.40108596725617</v>
+        <v>1116400.068845041</v>
       </c>
       <c r="G48">
-        <v>772.6513876930211</v>
+        <v>4841768.027149951</v>
       </c>
       <c r="H48">
-        <v>1036.402433011478</v>
+        <v>3986309.783672489</v>
       </c>
       <c r="I48">
-        <v>1189.975348881166</v>
+        <v>1117344.083388737</v>
       </c>
       <c r="J48">
-        <v>-262.7647793060989</v>
+        <v>4840984.992597898</v>
       </c>
       <c r="K48">
-        <v>-2655.029363936359</v>
+        <v>3982660.671143404</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>41.86788389238024</v>
+        <v>1116399.573352807</v>
       </c>
       <c r="G49">
-        <v>796.104796687972</v>
+        <v>4841784.539967333</v>
       </c>
       <c r="H49">
-        <v>1040.45224813324</v>
+        <v>3986317.367388089</v>
       </c>
       <c r="I49">
-        <v>1300.123685853706</v>
+        <v>1117434.754289361</v>
       </c>
       <c r="J49">
-        <v>-316.4848260573504</v>
+        <v>4840936.341012768</v>
       </c>
       <c r="K49">
-        <v>-3267.345757921493</v>
+        <v>3982267.629275782</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>41.35430032060939</v>
+        <v>1116399.096091589</v>
       </c>
       <c r="G50">
-        <v>819.5582056829227</v>
+        <v>4841801.052784715</v>
       </c>
       <c r="H50">
-        <v>1044.402206873929</v>
+        <v>3986324.764111845</v>
       </c>
       <c r="I50">
-        <v>1412.984324289583</v>
+        <v>1117527.657877496</v>
       </c>
       <c r="J50">
-        <v>-370.2048728086019</v>
+        <v>4840887.689427636</v>
       </c>
       <c r="K50">
-        <v>-3903.262082303834</v>
+        <v>3981859.438767994</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>40.85916118395634</v>
+        <v>1116398.635970354</v>
       </c>
       <c r="G51">
-        <v>843.0116146778734</v>
+        <v>4841817.565602098</v>
       </c>
       <c r="H51">
-        <v>1048.257115290094</v>
+        <v>3986331.982843617</v>
       </c>
       <c r="I51">
-        <v>1528.624052117059</v>
+        <v>1117622.84913102</v>
       </c>
       <c r="J51">
-        <v>-423.9249195598534</v>
+        <v>4840839.037842506</v>
       </c>
       <c r="K51">
-        <v>-4562.77833708338</v>
+        <v>3981436.099620044</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>40.38138846657792</v>
+        <v>1116398.191987327</v>
       </c>
       <c r="G52">
-        <v>866.4650236728243</v>
+        <v>4841834.078419479</v>
       </c>
       <c r="H52">
-        <v>1052.021440605275</v>
+        <v>3986339.031948762</v>
       </c>
       <c r="I52">
-        <v>1647.111301855689</v>
+        <v>1117720.384381588</v>
       </c>
       <c r="J52">
-        <v>-477.644966311105</v>
+        <v>4840790.386257376</v>
       </c>
       <c r="K52">
-        <v>-5245.894522260132</v>
+        <v>3980997.611831929</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>39.91999033367321</v>
+        <v>1116397.763220819</v>
       </c>
       <c r="G53">
-        <v>889.9184326677749</v>
+        <v>4841850.591236861</v>
       </c>
       <c r="H53">
-        <v>1055.69934233092</v>
+        <v>3986345.919216415</v>
       </c>
       <c r="I53">
-        <v>1768.51619111286</v>
+        <v>1117820.32134797</v>
       </c>
       <c r="J53">
-        <v>-531.365013062356</v>
+        <v>4840741.734672246</v>
       </c>
       <c r="K53">
-        <v>-5952.610637834086</v>
+        <v>3980543.97540365</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2297,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>39.47405247238974</v>
+        <v>1116397.34882118</v>
       </c>
       <c r="G54">
-        <v>913.3718416627256</v>
+        <v>4841867.104054244</v>
       </c>
       <c r="H54">
-        <v>1059.294699894378</v>
+        <v>3986352.651911222</v>
       </c>
       <c r="I54">
-        <v>1892.91056407754</v>
+        <v>1117922.719170209</v>
       </c>
       <c r="J54">
-        <v>-585.0850598136075</v>
+        <v>4840693.083087115</v>
       </c>
       <c r="K54">
-        <v>-6682.926683805251</v>
+        <v>3980075.190335207</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,34 +2329,34 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G55">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H55">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I55">
-        <v>-1454.389427097074</v>
+        <v>1114861.924363962</v>
       </c>
       <c r="J55">
-        <v>1649.148584489021</v>
+        <v>4843232.343347755</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984365.256893009</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,34 +2364,34 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G56">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H56">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I56">
-        <v>-1425.675907149177</v>
+        <v>1114891.538375485</v>
       </c>
       <c r="J56">
-        <v>1609.031735553332</v>
+        <v>4843183.691668422</v>
       </c>
       <c r="K56">
-        <v>418.3432433730872</v>
+        <v>3984669.052498849</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,34 +2399,34 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G57">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H57">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I57">
-        <v>-1396.255343188518</v>
+        <v>1114921.881604798</v>
       </c>
       <c r="J57">
-        <v>1568.914886617643</v>
+        <v>4843135.039989088</v>
       </c>
       <c r="K57">
-        <v>815.8259750150067</v>
+        <v>3984957.699463234</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,34 +2434,34 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G58">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H58">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I58">
-        <v>-1366.110324906749</v>
+        <v>1114952.972008217</v>
       </c>
       <c r="J58">
-        <v>1528.798037681954</v>
+        <v>4843086.388309754</v>
       </c>
       <c r="K58">
-        <v>1192.448194925762</v>
+        <v>3985231.197786162</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,34 +2469,34 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G59">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H59">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I59">
-        <v>-1335.223013282701</v>
+        <v>1114984.827984218</v>
       </c>
       <c r="J59">
-        <v>1488.681188746265</v>
+        <v>4843037.736630421</v>
       </c>
       <c r="K59">
-        <v>1548.209903105349</v>
+        <v>3985489.547467634</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,34 +2504,34 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G60">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H60">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I60">
-        <v>-1303.575130025715</v>
+        <v>1115017.468384321</v>
       </c>
       <c r="J60">
-        <v>1448.564339810576</v>
+        <v>4842989.084951089</v>
       </c>
       <c r="K60">
-        <v>1883.111099553773</v>
+        <v>3985732.748507649</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,34 +2539,34 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G61">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H61">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I61">
-        <v>-1271.147946759046</v>
+        <v>1115050.912524248</v>
       </c>
       <c r="J61">
-        <v>1408.447490874887</v>
+        <v>4842940.433271755</v>
       </c>
       <c r="K61">
-        <v>2197.15178427103</v>
+        <v>3985960.800906208</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,34 +2574,34 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G62">
-        <v>-93.82863835164027</v>
+        <v>4841117.990049896</v>
       </c>
       <c r="H62">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I62">
-        <v>-1237.922273936896</v>
+        <v>1115085.180195352</v>
       </c>
       <c r="J62">
-        <v>1368.330641939198</v>
+        <v>4842891.781592421</v>
       </c>
       <c r="K62">
-        <v>2490.331957257121</v>
+        <v>3986173.704663311</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,34 +2609,34 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>281.7805949007184</v>
+        <v>1116578.178989898</v>
       </c>
       <c r="G63">
-        <v>-78.33488905737161</v>
+        <v>4841134.502846685</v>
       </c>
       <c r="H63">
-        <v>825.288191541432</v>
+        <v>3985232.184542915</v>
       </c>
       <c r="I63">
-        <v>-1203.878449488559</v>
+        <v>1115120.291676332</v>
       </c>
       <c r="J63">
-        <v>1328.213793003509</v>
+        <v>4842843.129913088</v>
       </c>
       <c r="K63">
-        <v>2762.651618512046</v>
+        <v>3986371.459778958</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,34 +2644,34 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>218.6946131692762</v>
+        <v>1116529.498440291</v>
       </c>
       <c r="G64">
-        <v>-62.84113976310295</v>
+        <v>4841151.015643474</v>
       </c>
       <c r="H64">
-        <v>1016.749498568739</v>
+        <v>3985431.439142493</v>
       </c>
       <c r="I64">
-        <v>-1168.996327182927</v>
+        <v>1115156.267745229</v>
       </c>
       <c r="J64">
-        <v>1288.09694406782</v>
+        <v>4842794.478233755</v>
       </c>
       <c r="K64">
-        <v>3014.110768035804</v>
+        <v>3986554.066253148</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,34 +2679,34 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>181.6347636365248</v>
+        <v>1116500.901059477</v>
       </c>
       <c r="G65">
-        <v>-47.34739046883431</v>
+        <v>4841167.528440264</v>
       </c>
       <c r="H65">
-        <v>1130.793644737179</v>
+        <v>3985550.125372268</v>
       </c>
       <c r="I65">
-        <v>-1133.255264706482</v>
+        <v>1115193.129691725</v>
       </c>
       <c r="J65">
-        <v>1247.980095132131</v>
+        <v>4842745.82655442</v>
       </c>
       <c r="K65">
-        <v>3244.709405828397</v>
+        <v>3986721.524085883</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,34 +2714,34 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>158.2398677633298</v>
+        <v>1116482.848294697</v>
       </c>
       <c r="G66">
-        <v>-31.85364117456565</v>
+        <v>4841184.041237053</v>
       </c>
       <c r="H66">
-        <v>1212.293288054592</v>
+        <v>3985634.942398993</v>
       </c>
       <c r="I66">
-        <v>-1096.634111447728</v>
+        <v>1115230.899329742</v>
       </c>
       <c r="J66">
-        <v>1207.863246196442</v>
+        <v>4842697.174875087</v>
       </c>
       <c r="K66">
-        <v>3454.447531889825</v>
+        <v>3986873.83327716</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,34 +2749,34 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>141.9243623468211</v>
+        <v>1116470.258369821</v>
       </c>
       <c r="G67">
-        <v>-16.35989188029699</v>
+        <v>4841200.554033843</v>
       </c>
       <c r="H67">
-        <v>1275.757016642396</v>
+        <v>3985700.989372262</v>
       </c>
       <c r="I67">
-        <v>-1059.111195980822</v>
+        <v>1115269.599010346</v>
       </c>
       <c r="J67">
-        <v>1167.746397260753</v>
+        <v>4842648.523195755</v>
       </c>
       <c r="K67">
-        <v>3643.325146220086</v>
+        <v>3987010.993826982</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,34 +2784,34 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>129.7525067124654</v>
+        <v>1116460.865908837</v>
       </c>
       <c r="G68">
-        <v>-0.8661425860283467</v>
+        <v>4841217.066830632</v>
       </c>
       <c r="H68">
-        <v>1327.738733051308</v>
+        <v>3985755.086966441</v>
       </c>
       <c r="I68">
-        <v>-1020.664313240992</v>
+        <v>1115309.251634983</v>
       </c>
       <c r="J68">
-        <v>1127.629548325064</v>
+        <v>4842599.871516421</v>
       </c>
       <c r="K68">
-        <v>3811.342248819181</v>
+        <v>3987133.005735347</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,34 +2819,34 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>120.2358153556466</v>
+        <v>1116453.522315967</v>
       </c>
       <c r="G69">
-        <v>14.62760670824031</v>
+        <v>4841233.579627422</v>
       </c>
       <c r="H69">
-        <v>1371.763452368269</v>
+        <v>3985800.903679776</v>
       </c>
       <c r="I69">
-        <v>-981.2707113841777</v>
+        <v>1115349.880669022</v>
       </c>
       <c r="J69">
-        <v>1087.512699389375</v>
+        <v>4842551.219837087</v>
       </c>
       <c r="K69">
-        <v>3958.49883968711</v>
+        <v>3987239.869002256</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,34 +2854,34 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>112.5361191149611</v>
+        <v>1116447.58081463</v>
       </c>
       <c r="G70">
-        <v>30.12135600250897</v>
+        <v>4841250.092424211</v>
       </c>
       <c r="H70">
-        <v>1409.946878279412</v>
+        <v>3985840.641334129</v>
       </c>
       <c r="I70">
-        <v>-940.9070783230881</v>
+        <v>1115391.510155646</v>
       </c>
       <c r="J70">
-        <v>1047.395850453686</v>
+        <v>4842502.568157754</v>
       </c>
       <c r="K70">
-        <v>4084.794918823874</v>
+        <v>3987331.583627709</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,34 +2889,34 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>106.1426276797245</v>
+        <v>1116442.647251444</v>
       </c>
       <c r="G71">
-        <v>45.61510529677761</v>
+        <v>4841266.605221001</v>
       </c>
       <c r="H71">
-        <v>1443.659064967738</v>
+        <v>3985875.725750733</v>
       </c>
       <c r="I71">
-        <v>-899.5495279317309</v>
+        <v>1115434.164730079</v>
       </c>
       <c r="J71">
-        <v>1007.279001517997</v>
+        <v>4842453.916478421</v>
       </c>
       <c r="K71">
-        <v>4190.230486229471</v>
+        <v>3987408.149611705</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,34 +2924,34 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>100.7246247388212</v>
+        <v>1116438.466427849</v>
       </c>
       <c r="G72">
-        <v>61.10885459104629</v>
+        <v>4841283.11801779</v>
       </c>
       <c r="H72">
-        <v>1473.838255919317</v>
+        <v>3985907.133363592</v>
       </c>
       <c r="I72">
-        <v>-857.173585910235</v>
+        <v>1115477.869634167</v>
       </c>
       <c r="J72">
-        <v>967.1621525823082</v>
+        <v>4842405.264799087</v>
       </c>
       <c r="K72">
-        <v>4274.805541903903</v>
+        <v>3987469.566954245</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,34 +2959,34 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>96.05754378758448</v>
+        <v>1116434.865056205</v>
       </c>
       <c r="G73">
-        <v>76.60260388531493</v>
+        <v>4841299.630814579</v>
       </c>
       <c r="H73">
-        <v>1501.15521686561</v>
+        <v>3985935.562241466</v>
       </c>
       <c r="I73">
-        <v>-813.7541753016116</v>
+        <v>1115522.65073131</v>
       </c>
       <c r="J73">
-        <v>927.0453036466193</v>
+        <v>4842356.613119753</v>
       </c>
       <c r="K73">
-        <v>4338.520085847168</v>
+        <v>3987515.835655329</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,34 +2994,34 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>91.98294096098752</v>
+        <v>1116431.72087267</v>
       </c>
       <c r="G74">
-        <v>92.09635317958357</v>
+        <v>4841316.14361137</v>
       </c>
       <c r="H74">
-        <v>1526.10614158074</v>
+        <v>3985961.528775333</v>
       </c>
       <c r="I74">
-        <v>-769.2656016518762</v>
+        <v>1115568.534521772</v>
       </c>
       <c r="J74">
-        <v>886.9284547109303</v>
+        <v>4842307.961440421</v>
       </c>
       <c r="K74">
-        <v>4381.374118059268</v>
+        <v>3987546.955714957</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,34 +3029,34 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>88.38545177459352</v>
+        <v>1116428.944855781</v>
       </c>
       <c r="G75">
-        <v>107.5901024738523</v>
+        <v>4841332.656408158</v>
       </c>
       <c r="H75">
-        <v>1549.068423680682</v>
+        <v>3985985.425720341</v>
       </c>
       <c r="I75">
-        <v>-723.6815378047531</v>
+        <v>1115615.548158362</v>
       </c>
       <c r="J75">
-        <v>846.8116057752414</v>
+        <v>4842259.309761087</v>
       </c>
       <c r="K75">
-        <v>4403.367638540202</v>
+        <v>3987562.927133129</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,34 +3064,34 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>85.17884085519665</v>
+        <v>1116426.470461666</v>
       </c>
       <c r="G76">
-        <v>123.0838517681209</v>
+        <v>4841349.169204948</v>
       </c>
       <c r="H76">
-        <v>1570.335794155462</v>
+        <v>3986007.558763586</v>
       </c>
       <c r="I76">
-        <v>-676.9750083219644</v>
+        <v>1115663.719462502</v>
       </c>
       <c r="J76">
-        <v>806.6947568395524</v>
+        <v>4842210.658081754</v>
       </c>
       <c r="K76">
-        <v>4404.500647289969</v>
+        <v>3987563.749909843</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,34 +3099,34 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>82.29719452726488</v>
+        <v>1116424.246827775</v>
       </c>
       <c r="G77">
-        <v>138.5776010623896</v>
+        <v>4841365.682001738</v>
       </c>
       <c r="H77">
-        <v>1590.141357819857</v>
+        <v>3986028.170498242</v>
       </c>
       <c r="I77">
-        <v>-629.1183735198815</v>
+        <v>1115713.076940689</v>
       </c>
       <c r="J77">
-        <v>766.5779079038633</v>
+        <v>4842162.00640242</v>
       </c>
       <c r="K77">
-        <v>4384.773144308571</v>
+        <v>3987549.424045102</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,34 +3134,34 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>79.68915926482914</v>
+        <v>1116422.234326955</v>
       </c>
       <c r="G78">
-        <v>154.0713503566582</v>
+        <v>4841382.194798526</v>
       </c>
       <c r="H78">
-        <v>1608.673209031488</v>
+        <v>3986047.456674911</v>
       </c>
       <c r="I78">
-        <v>-580.0833131130936</v>
+        <v>1115763.649801368</v>
       </c>
       <c r="J78">
-        <v>726.4610589681744</v>
+        <v>4842113.354723087</v>
       </c>
       <c r="K78">
-        <v>4344.185129596008</v>
+        <v>3987519.949538904</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,34 +3169,34 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>77.31405618214488</v>
+        <v>1116420.401569181</v>
       </c>
       <c r="G79">
-        <v>169.5650996509269</v>
+        <v>4841398.707595317</v>
       </c>
       <c r="H79">
-        <v>1626.085322396171</v>
+        <v>3986065.577535622</v>
       </c>
       <c r="I79">
-        <v>-529.8408094552171</v>
+        <v>1115815.467972215</v>
       </c>
       <c r="J79">
-        <v>686.3442100324853</v>
+        <v>4842064.703043753</v>
       </c>
       <c r="K79">
-        <v>4282.736603152277</v>
+        <v>3987475.326391251</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,34 +3204,34 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>75.13919069217714</v>
+        <v>1116418.723325545</v>
       </c>
       <c r="G80">
-        <v>185.0588489451955</v>
+        <v>4841415.220392105</v>
       </c>
       <c r="H80">
-        <v>1642.505336632226</v>
+        <v>3986082.665914535</v>
       </c>
       <c r="I80">
-        <v>-478.3611303670213</v>
+        <v>1115868.562117847</v>
       </c>
       <c r="J80">
-        <v>646.2273610967964</v>
+        <v>4842016.051364419</v>
       </c>
       <c r="K80">
-        <v>4200.427564977382</v>
+        <v>3987415.554602141</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,34 +3239,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>73.13794624966407</v>
+        <v>1116417.179057283</v>
       </c>
       <c r="G81">
-        <v>200.5525982394642</v>
+        <v>4841431.733188896</v>
       </c>
       <c r="H81">
-        <v>1658.040237992862</v>
+        <v>3986098.8331527</v>
       </c>
       <c r="I81">
-        <v>-425.6138115417153</v>
+        <v>1115922.963657971</v>
       </c>
       <c r="J81">
-        <v>606.1105121611074</v>
+        <v>4841967.399685087</v>
       </c>
       <c r="K81">
-        <v>4097.258015071319</v>
+        <v>3987340.634171574</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,34 +3274,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>71.28840591190699</v>
+        <v>1116415.751852099</v>
       </c>
       <c r="G82">
-        <v>216.0463475337328</v>
+        <v>4841448.245985685</v>
       </c>
       <c r="H82">
-        <v>1672.780588712957</v>
+        <v>3986114.173498621</v>
       </c>
       <c r="I82">
-        <v>-371.567638516979</v>
+        <v>1115978.704785971</v>
       </c>
       <c r="J82">
-        <v>565.9936632254183</v>
+        <v>4841918.748005753</v>
       </c>
       <c r="K82">
-        <v>3973.227953434092</v>
+        <v>3987250.565099552</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,34 +3309,34 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>69.57233739720444</v>
+        <v>1116414.42764098</v>
       </c>
       <c r="G83">
-        <v>231.5400968280015</v>
+        <v>4841464.758782474</v>
       </c>
       <c r="H83">
-        <v>1686.803725767489</v>
+        <v>3986128.767437219</v>
       </c>
       <c r="I83">
-        <v>-316.1906282030762</v>
+        <v>1116035.818487967</v>
       </c>
       <c r="J83">
-        <v>525.8768142897293</v>
+        <v>4841870.09632642</v>
       </c>
       <c r="K83">
-        <v>3828.337380065697</v>
+        <v>3987145.347386073</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,34 +3344,34 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>67.97443361118884</v>
+        <v>1116413.194612146</v>
       </c>
       <c r="G84">
-        <v>247.0338461222701</v>
+        <v>4841481.271579264</v>
       </c>
       <c r="H84">
-        <v>1700.176216911978</v>
+        <v>3986142.68424584</v>
       </c>
       <c r="I84">
-        <v>-259.450009956109</v>
+        <v>1116094.338562331</v>
       </c>
       <c r="J84">
-        <v>485.7599653540404</v>
+        <v>4841821.444647086</v>
       </c>
       <c r="K84">
-        <v>3662.586294966139</v>
+        <v>3987024.981031138</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,34 +3379,34 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>66.48173601527405</v>
+        <v>1116412.042766088</v>
       </c>
       <c r="G85">
-        <v>262.5275954165388</v>
+        <v>4841497.784376053</v>
       </c>
       <c r="H85">
-        <v>1712.955771795302</v>
+        <v>3986155.983983164</v>
       </c>
       <c r="I85">
-        <v>-201.312206185222</v>
+        <v>1116154.299639689</v>
       </c>
       <c r="J85">
-        <v>445.6431164183514</v>
+        <v>4841772.792967753</v>
       </c>
       <c r="K85">
-        <v>3475.974698135412</v>
+        <v>3986889.466034747</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,34 +3414,34 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>65.08319102335822</v>
+        <v>1116410.963573263</v>
       </c>
       <c r="G86">
-        <v>278.0213447108074</v>
+        <v>4841514.297172843</v>
       </c>
       <c r="H86">
-        <v>1725.19274708643</v>
+        <v>3986168.719055589</v>
       </c>
       <c r="I86">
-        <v>-141.7428124822752</v>
+        <v>1116215.737203414</v>
       </c>
       <c r="J86">
-        <v>405.5262674826625</v>
+        <v>4841724.141288419</v>
       </c>
       <c r="K86">
-        <v>3268.502589573522</v>
+        <v>3986738.802396899</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,34 +3449,34 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>63.76930463467372</v>
+        <v>1116409.949707586</v>
       </c>
       <c r="G87">
-        <v>293.5150940050761</v>
+        <v>4841530.809969632</v>
       </c>
       <c r="H87">
-        <v>1736.93134490529</v>
+        <v>3986180.935464452</v>
       </c>
       <c r="I87">
-        <v>-80.70657726223052</v>
+        <v>1116278.687610624</v>
       </c>
       <c r="J87">
-        <v>365.4094185469735</v>
+        <v>4841675.489609086</v>
       </c>
       <c r="K87">
-        <v>3040.169969280464</v>
+        <v>3986572.990117595</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,34 +3484,34 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>62.53187059931442</v>
+        <v>1116408.994836674</v>
       </c>
       <c r="G88">
-        <v>309.0088432993448</v>
+        <v>4841547.322766421</v>
       </c>
       <c r="H88">
-        <v>1748.210576623931</v>
+        <v>3986192.673809053</v>
       </c>
       <c r="I88">
-        <v>-18.16738090219935</v>
+        <v>1116343.188113698</v>
       </c>
       <c r="J88">
-        <v>325.2925696112844</v>
+        <v>4841626.837929753</v>
       </c>
       <c r="K88">
-        <v>2790.97683725624</v>
+        <v>3986392.029196835</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,34 +3519,34 @@
         <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>61.36375431094708</v>
+        <v>1116408.093455078</v>
       </c>
       <c r="G89">
-        <v>324.5025925936134</v>
+        <v>4841563.835563211</v>
       </c>
       <c r="H89">
-        <v>1759.065045090334</v>
+        <v>3986203.970100724</v>
       </c>
       <c r="I89">
-        <v>45.91178563319211</v>
+        <v>1116409.276882321</v>
       </c>
       <c r="J89">
-        <v>285.1757206755955</v>
+        <v>4841578.186250419</v>
       </c>
       <c r="K89">
-        <v>2520.923193500851</v>
+        <v>3986195.919634618</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,34 +3554,34 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>60.25871941546379</v>
+        <v>1116407.24075049</v>
       </c>
       <c r="G90">
-        <v>339.9963418878821</v>
+        <v>4841580.348360001</v>
       </c>
       <c r="H90">
-        <v>1769.525584838987</v>
+        <v>3986214.856429096</v>
       </c>
       <c r="I90">
-        <v>111.5688426927652</v>
+        <v>1116476.993026071</v>
       </c>
       <c r="J90">
-        <v>245.0588717399065</v>
+        <v>4841529.534571086</v>
       </c>
       <c r="K90">
-        <v>2230.009038014296</v>
+        <v>3985984.661430946</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,34 +3589,34 @@
         <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>59.21128750679284</v>
+        <v>1116406.432495477</v>
       </c>
       <c r="G91">
-        <v>355.4900911821507</v>
+        <v>4841596.86115679</v>
       </c>
       <c r="H91">
-        <v>1779.619790146341</v>
+        <v>3986225.361511652</v>
       </c>
       <c r="I91">
-        <v>178.842644379046</v>
+        <v>1116546.376617562</v>
       </c>
       <c r="J91">
-        <v>204.9420228042176</v>
+        <v>4841480.882891753</v>
       </c>
       <c r="K91">
-        <v>1918.234370796576</v>
+        <v>3985758.254585817</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,34 +3624,34 @@
         <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>58.21662370071199</v>
+        <v>1116405.66495918</v>
       </c>
       <c r="G92">
-        <v>370.9838404764194</v>
+        <v>4841613.373953579</v>
       </c>
       <c r="H92">
-        <v>1789.372453712637</v>
+        <v>3986235.51115026</v>
       </c>
       <c r="I92">
-        <v>247.7730015410881</v>
+        <v>1116617.468716163</v>
       </c>
       <c r="J92">
-        <v>164.8251738685286</v>
+        <v>4841432.231212419</v>
       </c>
       <c r="K92">
-        <v>1585.599191847688</v>
+        <v>3985516.699099231</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,34 +3659,34 @@
         <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>57.27044263058403</v>
+        <v>1116404.934834781</v>
       </c>
       <c r="G93">
-        <v>386.477589770688</v>
+        <v>4841629.886750369</v>
       </c>
       <c r="H93">
-        <v>1798.805933529178</v>
+        <v>3986245.328612977</v>
       </c>
       <c r="I93">
-        <v>318.4007053334803</v>
+        <v>1116690.311392288</v>
       </c>
       <c r="J93">
-        <v>124.7083249328395</v>
+        <v>4841383.579533085</v>
       </c>
       <c r="K93">
-        <v>1232.103501167634</v>
+        <v>3985259.99497119</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,34 +3694,34 @@
         <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>56.36893069417918</v>
+        <v>1116404.239179497</v>
       </c>
       <c r="G94">
-        <v>401.9713390649567</v>
+        <v>4841646.399547158</v>
       </c>
       <c r="H94">
-        <v>1807.940461592636</v>
+        <v>3986254.834955328</v>
       </c>
       <c r="I94">
-        <v>390.767551355463</v>
+        <v>1116764.947752299</v>
       </c>
       <c r="J94">
-        <v>84.59147599715064</v>
+        <v>4841334.927853752</v>
       </c>
       <c r="K94">
-        <v>857.7472987564159</v>
+        <v>3984988.142201692</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,34 +3729,34 @@
         <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>55.50868133342151</v>
+        <v>1116403.575364644</v>
       </c>
       <c r="G95">
-        <v>417.4650883592253</v>
+        <v>4841662.912343948</v>
       </c>
       <c r="H95">
-        <v>1816.794405188891</v>
+        <v>3986264.049292227</v>
       </c>
       <c r="I95">
-        <v>464.916364384461</v>
+        <v>1116841.421964011</v>
       </c>
       <c r="J95">
-        <v>44.47462706146158</v>
+        <v>4841286.27617442</v>
       </c>
       <c r="K95">
-        <v>462.5305846140304</v>
+        <v>3984701.140790737</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,34 +3764,34 @@
         <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>54.68664084229446</v>
+        <v>1116402.941033818</v>
       </c>
       <c r="G96">
-        <v>432.958837653494</v>
+        <v>4841679.425140738</v>
       </c>
       <c r="H96">
-        <v>1825.38448923092</v>
+        <v>3986272.989029361</v>
       </c>
       <c r="I96">
-        <v>540.8910237186403</v>
+        <v>1116919.779282831</v>
       </c>
       <c r="J96">
-        <v>4.357778125772529</v>
+        <v>4841237.624495085</v>
       </c>
       <c r="K96">
-        <v>46.4533587404793</v>
+        <v>3984398.990738327</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,34 +3799,34 @@
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>53.90006273750436</v>
+        <v>1116402.334067684</v>
       </c>
       <c r="G97">
-        <v>448.4525869477627</v>
+        <v>4841695.937937526</v>
       </c>
       <c r="H97">
-        <v>1833.725986415704</v>
+        <v>3986281.67006109</v>
       </c>
       <c r="I97">
-        <v>618.7364891435183</v>
+        <v>1117000.066078539</v>
       </c>
       <c r="J97">
-        <v>-35.75907080991634</v>
+        <v>4841188.972815752</v>
       </c>
       <c r="K97">
-        <v>-390.4843788642365</v>
+        <v>3984081.69204446</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,34 +3834,34 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>53.14646913793503</v>
+        <v>1116401.752554175</v>
       </c>
       <c r="G98">
-        <v>463.9463362420313</v>
+        <v>4841712.450734316</v>
       </c>
       <c r="H98">
-        <v>1841.832880632687</v>
+        <v>3986290.106940511</v>
       </c>
       <c r="I98">
-        <v>698.4988275379692</v>
+        <v>1117082.32986273</v>
       </c>
       <c r="J98">
-        <v>-75.8759197456054</v>
+        <v>4841140.321136419</v>
       </c>
       <c r="K98">
-        <v>-848.2826282001196</v>
+        <v>3983749.244709138</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,34 +3869,34 @@
         <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>52.42361791541629</v>
+        <v>1116401.194763144</v>
       </c>
       <c r="G99">
-        <v>479.4400855363</v>
+        <v>4841728.963531105</v>
       </c>
       <c r="H99">
-        <v>1849.718008015589</v>
+        <v>3986298.31302624</v>
       </c>
       <c r="I99">
-        <v>780.2252401353782</v>
+        <v>1117166.619316925</v>
       </c>
       <c r="J99">
-        <v>-115.9927686812945</v>
+        <v>4841091.669457084</v>
       </c>
       <c r="K99">
-        <v>-1326.94138926717</v>
+        <v>3983401.648732358</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,34 +3904,34 @@
         <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>51.72947462471998</v>
+        <v>1116400.659124703</v>
       </c>
       <c r="G100">
-        <v>494.9338348305686</v>
+        <v>4841745.476327895</v>
       </c>
       <c r="H100">
-        <v>1857.393179210493</v>
+        <v>3986306.300609668</v>
       </c>
       <c r="I100">
-        <v>863.9640904560773</v>
+        <v>1117252.984321384</v>
       </c>
       <c r="J100">
-        <v>-156.1096176169835</v>
+        <v>4841043.017777751</v>
       </c>
       <c r="K100">
-        <v>-1826.460662065385</v>
+        <v>3983038.904114123</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,34 +3939,34 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>51.062188412362</v>
+        <v>1116400.144210634</v>
       </c>
       <c r="G101">
-        <v>510.4275841248372</v>
+        <v>4841761.989124685</v>
       </c>
       <c r="H101">
-        <v>1864.869285784178</v>
+        <v>3986314.081025695</v>
       </c>
       <c r="I101">
-        <v>949.7649329275935</v>
+        <v>1117341.475984625</v>
       </c>
       <c r="J101">
-        <v>-196.2264665526722</v>
+        <v>4840994.366098418</v>
       </c>
       <c r="K101">
-        <v>-2346.840446594762</v>
+        <v>3982661.010854431</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,34 +3974,34 @@
         <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>50.42007125455613</v>
+        <v>1116399.648718366</v>
       </c>
       <c r="G102">
-        <v>525.921333419106</v>
+        <v>4841778.501921474</v>
       </c>
       <c r="H102">
-        <v>1872.156393179066</v>
+        <v>3986321.66474947</v>
       </c>
       <c r="I102">
-        <v>1037.678542209644</v>
+        <v>1117432.146673661</v>
       </c>
       <c r="J102">
-        <v>-236.3433154883612</v>
+        <v>4840945.714419086</v>
       </c>
       <c r="K102">
-        <v>-2888.080742855308</v>
+        <v>3982267.968953283</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,34 +4009,34 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>49.80157999403726</v>
+        <v>1116399.171457116</v>
       </c>
       <c r="G103">
-        <v>541.4150827133745</v>
+        <v>4841795.014718263</v>
       </c>
       <c r="H103">
-        <v>1879.263822205667</v>
+        <v>3986329.0614812</v>
       </c>
       <c r="I103">
-        <v>1127.756943241227</v>
+        <v>1117525.050045</v>
       </c>
       <c r="J103">
-        <v>-276.4601644240503</v>
+        <v>4840897.062739751</v>
       </c>
       <c r="K103">
-        <v>-3450.181550847022</v>
+        <v>3981859.778410678</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,34 +4044,34 @@
         <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>49.2053007405852</v>
+        <v>1116398.71133585</v>
       </c>
       <c r="G104">
-        <v>556.9088320076432</v>
+        <v>4841811.527515053</v>
       </c>
       <c r="H104">
-        <v>1886.200220727936</v>
+        <v>3986336.280220754</v>
       </c>
       <c r="I104">
-        <v>1220.053442027603</v>
+        <v>1117620.241076388</v>
       </c>
       <c r="J104">
-        <v>-316.5770133597393</v>
+        <v>4840848.411060418</v>
       </c>
       <c r="K104">
-        <v>-4033.142870569901</v>
+        <v>3981436.439226618</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,34 +4079,34 @@
         <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>48.62993527631613</v>
+        <v>1116398.267352793</v>
       </c>
       <c r="G105">
-        <v>572.4025813019119</v>
+        <v>4841828.040311842</v>
       </c>
       <c r="H105">
-        <v>1892.973626924585</v>
+        <v>3986343.329333498</v>
       </c>
       <c r="I105">
-        <v>1314.622657185373</v>
+        <v>1117717.77609935</v>
       </c>
       <c r="J105">
-        <v>-356.6938622954284</v>
+        <v>4840799.759381085</v>
       </c>
       <c r="K105">
-        <v>-4636.964702023945</v>
+        <v>3980997.951401101</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,34 +4114,34 @@
         <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>48.07428916824978</v>
+        <v>1116397.838586256</v>
       </c>
       <c r="G106">
-        <v>587.8963305961805</v>
+        <v>4841844.553108632</v>
       </c>
       <c r="H106">
-        <v>1899.591525287055</v>
+        <v>3986350.216608576</v>
       </c>
       <c r="I106">
-        <v>1411.520552264318</v>
+        <v>1117817.712832522</v>
       </c>
       <c r="J106">
-        <v>-396.8107112311171</v>
+        <v>4840751.107701751</v>
       </c>
       <c r="K106">
-        <v>-5261.647045209152</v>
+        <v>3980544.314934128</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,34 +4149,34 @@
         <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>47.53726134045673</v>
+        <v>1116397.424186589</v>
       </c>
       <c r="G107">
-        <v>603.3900798904491</v>
+        <v>4841861.065905422</v>
       </c>
       <c r="H107">
-        <v>1906.060896332453</v>
+        <v>3986356.949310641</v>
       </c>
       <c r="I107">
-        <v>1510.804468865155</v>
+        <v>1117920.110415808</v>
       </c>
       <c r="J107">
-        <v>-436.9275601668061</v>
+        <v>4840702.456022417</v>
       </c>
       <c r="K107">
-        <v>-5907.189900125529</v>
+        <v>3980075.529825699</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4193,31 +4187,31 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G108">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H108">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I108">
-        <v>-1289.162896327854</v>
+        <v>1114860.178031575</v>
       </c>
       <c r="J108">
-        <v>2685.200943693135</v>
+        <v>4843228.718396086</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984368.552445855</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4228,31 +4222,31 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G109">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H109">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I109">
-        <v>-1263.71138805219</v>
+        <v>1114889.791996711</v>
       </c>
       <c r="J109">
-        <v>2619.881298372344</v>
+        <v>4843180.066753168</v>
       </c>
       <c r="K109">
-        <v>391.3592605789193</v>
+        <v>3984672.348302972</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,31 +4257,31 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G110">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H110">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I110">
-        <v>-1237.633159800198</v>
+        <v>1114920.135178494</v>
       </c>
       <c r="J110">
-        <v>2554.561653051554</v>
+        <v>4843131.415110247</v>
       </c>
       <c r="K110">
-        <v>763.2035544989249</v>
+        <v>3984960.995506102</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4298,31 +4292,31 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G111">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H111">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I111">
-        <v>-1210.912779169029</v>
+        <v>1114951.225533213</v>
       </c>
       <c r="J111">
-        <v>2489.242007730762</v>
+        <v>4843082.763467328</v>
       </c>
       <c r="K111">
-        <v>1115.53288176002</v>
+        <v>3985234.494055246</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4333,31 +4327,31 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G112">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H112">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I112">
-        <v>-1183.534433747118</v>
+        <v>1114983.081459314</v>
       </c>
       <c r="J112">
-        <v>2423.922362409972</v>
+        <v>4843034.111824408</v>
       </c>
       <c r="K112">
-        <v>1448.347242362201</v>
+        <v>3985492.843950405</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,31 +4362,31 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G113">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H113">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I113">
-        <v>-1155.481921756808</v>
+        <v>1115015.721808289</v>
       </c>
       <c r="J113">
-        <v>2358.602717089181</v>
+        <v>4842985.460181489</v>
       </c>
       <c r="K113">
-        <v>1761.646636305472</v>
+        <v>3985736.045191577</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4403,31 +4397,31 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G114">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H114">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I114">
-        <v>-1126.738642466574</v>
+        <v>1115049.165895828</v>
       </c>
       <c r="J114">
-        <v>2293.28307176839</v>
+        <v>4842936.808538568</v>
       </c>
       <c r="K114">
-        <v>2055.43106358983</v>
+        <v>3985964.097778763</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4438,31 +4432,31 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G115">
-        <v>-134.1459893840128</v>
+        <v>4841128.965055705</v>
       </c>
       <c r="H115">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I115">
-        <v>-1097.287586367151</v>
+        <v>1115083.433513256</v>
       </c>
       <c r="J115">
-        <v>2227.963426447599</v>
+        <v>4842888.156895649</v>
       </c>
       <c r="K115">
-        <v>2329.700524215276</v>
+        <v>3986177.001711964</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4473,31 +4467,31 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>79.04768815909515</v>
+        <v>1116578.823151026</v>
       </c>
       <c r="G116">
-        <v>-111.9947105755296</v>
+        <v>4841145.47788993</v>
       </c>
       <c r="H116">
-        <v>354.304215404882</v>
+        <v>3985225.391484871</v>
       </c>
       <c r="I116">
-        <v>-1067.111325105754</v>
+        <v>1115118.544939236</v>
       </c>
       <c r="J116">
-        <v>2162.643781126809</v>
+        <v>4842839.505252729</v>
       </c>
       <c r="K116">
-        <v>2584.455018181809</v>
+        <v>3986374.756991177</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4508,31 +4502,31 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>61.3502274348233</v>
+        <v>1116530.142573335</v>
       </c>
       <c r="G117">
-        <v>-89.84343176704647</v>
+        <v>4841161.990724155</v>
       </c>
       <c r="H117">
-        <v>436.5004092459733</v>
+        <v>3985424.645744807</v>
       </c>
       <c r="I117">
-        <v>-1036.192001172447</v>
+        <v>1115154.52095178</v>
       </c>
       <c r="J117">
-        <v>2097.324135806018</v>
+        <v>4842790.85360981</v>
       </c>
       <c r="K117">
-        <v>2819.694545489429</v>
+        <v>3986557.363616406</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4543,31 +4537,31 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>50.95385705977997</v>
+        <v>1116501.545176023</v>
       </c>
       <c r="G118">
-        <v>-67.69215295856334</v>
+        <v>4841178.50355838</v>
       </c>
       <c r="H118">
-        <v>485.4606659706693</v>
+        <v>3985543.331772275</v>
       </c>
       <c r="I118">
-        <v>-1004.511317332538</v>
+        <v>1115191.382840535</v>
       </c>
       <c r="J118">
-        <v>2032.004490485227</v>
+        <v>4842742.201966889</v>
       </c>
       <c r="K118">
-        <v>3035.419106138138</v>
+        <v>3986724.821587648</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,31 +4572,31 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>44.3909053627321</v>
+        <v>1116483.492400829</v>
       </c>
       <c r="G119">
-        <v>-45.54087415008018</v>
+        <v>4841195.016392604</v>
       </c>
       <c r="H119">
-        <v>520.4492523545618</v>
+        <v>3985628.148654424</v>
       </c>
       <c r="I119">
-        <v>-972.0505257987655</v>
+        <v>1115229.152419389</v>
       </c>
       <c r="J119">
-        <v>1966.684845164436</v>
+        <v>4842693.55032397</v>
       </c>
       <c r="K119">
-        <v>3231.628700127936</v>
+        <v>3986877.130904903</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,31 +4607,31 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>39.81392948979587</v>
+        <v>1116470.902468689</v>
       </c>
       <c r="G120">
-        <v>-23.38959534159703</v>
+        <v>4841211.529226828</v>
       </c>
       <c r="H120">
-        <v>547.6948458265501</v>
+        <v>3985694.195515113</v>
       </c>
       <c r="I120">
-        <v>-938.7904171368551</v>
+        <v>1115267.852039374</v>
       </c>
       <c r="J120">
-        <v>1901.365199843646</v>
+        <v>4842644.89868105</v>
       </c>
       <c r="K120">
-        <v>3408.323327458821</v>
+        <v>3987014.291568174</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,31 +4642,31 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>36.39936842379673</v>
+        <v>1116461.510002287</v>
       </c>
       <c r="G121">
-        <v>-1.238316533113888</v>
+        <v>4841228.042061053</v>
       </c>
       <c r="H121">
-        <v>570.0111002409744</v>
+        <v>3985748.293017079</v>
       </c>
       <c r="I121">
-        <v>-904.711308897884</v>
+        <v>1115307.504601898</v>
       </c>
       <c r="J121">
-        <v>1836.045554522855</v>
+        <v>4842596.247038131</v>
       </c>
       <c r="K121">
-        <v>3565.502988130793</v>
+        <v>3987136.303577458</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4683,31 +4677,31 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>33.7296584995018</v>
+        <v>1116454.16640518</v>
       </c>
       <c r="G122">
-        <v>20.91296227536927</v>
+        <v>4841244.554895277</v>
       </c>
       <c r="H122">
-        <v>588.911338722374</v>
+        <v>3985794.109652318</v>
       </c>
       <c r="I122">
-        <v>-869.7930339707331</v>
+        <v>1115348.133572295</v>
       </c>
       <c r="J122">
-        <v>1770.725909202064</v>
+        <v>4842547.59539521</v>
       </c>
       <c r="K122">
-        <v>3703.167682143854</v>
+        <v>3987243.166932756</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,31 +4712,31 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>31.56966878279364</v>
+        <v>1116448.224900415</v>
       </c>
       <c r="G123">
-        <v>43.06424108385242</v>
+        <v>4841261.067729502</v>
       </c>
       <c r="H123">
-        <v>605.3038533585644</v>
+        <v>3985833.847238934</v>
       </c>
       <c r="I123">
-        <v>-834.0149286477246</v>
+        <v>1115389.76299371</v>
       </c>
       <c r="J123">
-        <v>1705.406263881273</v>
+        <v>4842498.943752291</v>
       </c>
       <c r="K123">
-        <v>3821.317409498002</v>
+        <v>3987334.881634067</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4753,31 +4747,31 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>29.77610767047328</v>
+        <v>1116443.291334383</v>
       </c>
       <c r="G124">
-        <v>65.21551989233556</v>
+        <v>4841277.580563727</v>
       </c>
       <c r="H124">
-        <v>619.7768216823702</v>
+        <v>3985868.931595735</v>
       </c>
       <c r="I124">
-        <v>-797.3558203963906</v>
+        <v>1115432.417501329</v>
       </c>
       <c r="J124">
-        <v>1640.086618560483</v>
+        <v>4842450.292109371</v>
       </c>
       <c r="K124">
-        <v>3919.952170193239</v>
+        <v>3987411.447681393</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,31 +4782,31 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>28.25619957648801</v>
+        <v>1116439.110508376</v>
       </c>
       <c r="G125">
-        <v>87.36679870081873</v>
+        <v>4841294.093397952</v>
       </c>
       <c r="H125">
-        <v>632.7330407113644</v>
+        <v>3985900.339155059</v>
       </c>
       <c r="I125">
-        <v>-759.7940153301286</v>
+        <v>1115476.122336957</v>
       </c>
       <c r="J125">
-        <v>1574.766973239692</v>
+        <v>4842401.640466452</v>
       </c>
       <c r="K125">
-        <v>3999.071964229563</v>
+        <v>3987472.865074733</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,31 +4817,31 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>26.94694703631008</v>
+        <v>1116435.509134655</v>
       </c>
       <c r="G126">
-        <v>109.5180775093019</v>
+        <v>4841310.606232177</v>
       </c>
       <c r="H126">
-        <v>644.4604766719409</v>
+        <v>3985928.767984473</v>
       </c>
       <c r="I126">
-        <v>-721.3072853703367</v>
+        <v>1115520.903363954</v>
       </c>
       <c r="J126">
-        <v>1509.447327918901</v>
+        <v>4842352.988823531</v>
       </c>
       <c r="K126">
-        <v>4058.676791606975</v>
+        <v>3987519.133814086</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4858,31 +4852,31 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>25.80390191738524</v>
+        <v>1116432.364949306</v>
       </c>
       <c r="G127">
-        <v>131.669356317785</v>
+        <v>4841327.119066401</v>
       </c>
       <c r="H127">
-        <v>655.1721503580858</v>
+        <v>3985954.73447408</v>
       </c>
       <c r="I127">
-        <v>-681.8728550924276</v>
+        <v>1115566.787082544</v>
       </c>
       <c r="J127">
-        <v>1444.12768259811</v>
+        <v>4842304.337180612</v>
       </c>
       <c r="K127">
-        <v>4098.766652325475</v>
+        <v>3987550.253899454</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4893,31 +4887,31 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>24.79470111183657</v>
+        <v>1116429.588930815</v>
       </c>
       <c r="G128">
-        <v>153.8206351262682</v>
+        <v>4841343.631900625</v>
       </c>
       <c r="H128">
-        <v>665.0300805050448</v>
+        <v>3985978.631378354</v>
       </c>
       <c r="I128">
-        <v>-641.4673882479352</v>
+        <v>1115613.800645491</v>
       </c>
       <c r="J128">
-        <v>1378.80803727732</v>
+        <v>4842255.685537692</v>
       </c>
       <c r="K128">
-        <v>4119.341546385062</v>
+        <v>3987566.225330836</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4928,31 +4922,31 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>23.8951530783982</v>
+        <v>1116427.114535272</v>
       </c>
       <c r="G129">
-        <v>175.9719139347513</v>
+        <v>4841360.14473485</v>
       </c>
       <c r="H129">
-        <v>674.1603686722825</v>
+        <v>3986000.764383871</v>
       </c>
       <c r="I129">
-        <v>-600.0669739547452</v>
+        <v>1115661.971874174</v>
       </c>
       <c r="J129">
-        <v>1313.488391956529</v>
+        <v>4842207.033894774</v>
       </c>
       <c r="K129">
-        <v>4120.401473785738</v>
+        <v>3987567.048108232</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4963,31 +4957,31 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>23.08676710563308</v>
+        <v>1116424.890900099</v>
       </c>
       <c r="G130">
-        <v>198.1231927432345</v>
+        <v>4841376.657569075</v>
       </c>
       <c r="H130">
-        <v>682.6630890149285</v>
+        <v>3986021.376083393</v>
       </c>
       <c r="I130">
-        <v>-557.6471125472683</v>
+        <v>1115711.329275047</v>
       </c>
       <c r="J130">
-        <v>1248.168746635738</v>
+        <v>4842158.382251853</v>
       </c>
       <c r="K130">
-        <v>4101.946434527501</v>
+        <v>3987552.72223164</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4998,31 +4992,31 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>22.35513702938322</v>
+        <v>1116422.878398118</v>
       </c>
       <c r="G131">
-        <v>220.2744715517176</v>
+        <v>4841393.170403299</v>
       </c>
       <c r="H131">
-        <v>690.6189922628274</v>
+        <v>3986040.662227188</v>
       </c>
       <c r="I131">
-        <v>-514.1827010781889</v>
+        <v>1115761.902056508</v>
       </c>
       <c r="J131">
-        <v>1182.849101314947</v>
+        <v>4842109.730608934</v>
       </c>
       <c r="K131">
-        <v>4063.976428610352</v>
+        <v>3987523.247701064</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5033,31 +5027,31 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>21.68885123389797</v>
+        <v>1116421.045639287</v>
       </c>
       <c r="G132">
-        <v>242.4257503602008</v>
+        <v>4841409.683237524</v>
       </c>
       <c r="H132">
-        <v>698.0941812058467</v>
+        <v>3986058.783057011</v>
       </c>
       <c r="I132">
-        <v>-469.6480184632088</v>
+        <v>1115813.720146187</v>
       </c>
       <c r="J132">
-        <v>1117.529455994156</v>
+        <v>4842061.078966014</v>
       </c>
       <c r="K132">
-        <v>4006.491456034291</v>
+        <v>3987478.624516502</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,31 +5062,31 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>21.07873793244966</v>
+        <v>1116419.367394682</v>
       </c>
       <c r="G133">
-        <v>264.5770291686839</v>
+        <v>4841426.196071749</v>
       </c>
       <c r="H133">
-        <v>705.14345238223</v>
+        <v>3986075.871406795</v>
       </c>
       <c r="I133">
-        <v>-424.0167102599917</v>
+        <v>1115866.814208652</v>
       </c>
       <c r="J133">
-        <v>1052.209810673366</v>
+        <v>4842012.427323094</v>
       </c>
       <c r="K133">
-        <v>3929.491516799318</v>
+        <v>3987418.852677953</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5103,31 +5097,31 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>20.51733040657786</v>
+        <v>1116417.823125529</v>
       </c>
       <c r="G134">
-        <v>286.7283079771671</v>
+        <v>4841442.708905973</v>
       </c>
       <c r="H134">
-        <v>711.8127360268825</v>
+        <v>3986092.038617403</v>
       </c>
       <c r="I134">
-        <v>-377.2617730723043</v>
+        <v>1115921.21566356</v>
       </c>
       <c r="J134">
-        <v>986.890165352575</v>
+        <v>4841963.775680174</v>
       </c>
       <c r="K134">
-        <v>3832.976610905433</v>
+        <v>3987343.932185418</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5138,31 +5132,31 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>19.9984803136245</v>
+        <v>1116416.395919522</v>
       </c>
       <c r="G135">
-        <v>308.8795867856502</v>
+        <v>4841459.221740198</v>
       </c>
       <c r="H135">
-        <v>718.1409113845376</v>
+        <v>3986107.378937175</v>
       </c>
       <c r="I135">
-        <v>-329.3555385701231</v>
+        <v>1115976.956704247</v>
       </c>
       <c r="J135">
-        <v>921.5705200317841</v>
+        <v>4841915.124037255</v>
       </c>
       <c r="K135">
-        <v>3716.946738352635</v>
+        <v>3987253.863038898</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5173,31 +5167,31 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>19.51707296597644</v>
+        <v>1116415.071707639</v>
       </c>
       <c r="G136">
-        <v>331.0308655941333</v>
+        <v>4841475.734574422</v>
       </c>
       <c r="H136">
-        <v>724.1611799677356</v>
+        <v>3986121.972850897</v>
       </c>
       <c r="I136">
-        <v>-280.2696571162535</v>
+        <v>1116034.070316779</v>
       </c>
       <c r="J136">
-        <v>856.2508747109932</v>
+        <v>4841866.472394335</v>
       </c>
       <c r="K136">
-        <v>3581.401899140925</v>
+        <v>3987148.645238392</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5208,31 +5202,31 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>19.06881427651735</v>
+        <v>1116413.838678093</v>
       </c>
       <c r="G137">
-        <v>353.1821444026165</v>
+        <v>4841492.247408647</v>
       </c>
       <c r="H137">
-        <v>729.9021199587798</v>
+        <v>3986135.889635797</v>
       </c>
       <c r="I137">
-        <v>-229.9750809897654</v>
+        <v>1116092.590299477</v>
       </c>
       <c r="J137">
-        <v>790.9312293902027</v>
+        <v>4841817.820751415</v>
       </c>
       <c r="K137">
-        <v>3426.342093270304</v>
+        <v>3987028.278783899</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5243,31 +5237,31 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>18.65006899663292</v>
+        <v>1116412.686831371</v>
       </c>
       <c r="G138">
-        <v>375.3334232110997</v>
+        <v>4841508.760242872</v>
       </c>
       <c r="H138">
-        <v>735.388506668982</v>
+        <v>3986149.18935045</v>
       </c>
       <c r="I138">
-        <v>-178.4420471963241</v>
+        <v>1116152.551282911</v>
       </c>
       <c r="J138">
-        <v>725.6115840694117</v>
+        <v>4841769.169108495</v>
       </c>
       <c r="K138">
-        <v>3251.767320740769</v>
+        <v>3986892.76367542</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5278,31 +5272,31 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>18.25773627252756</v>
+        <v>1116411.607637923</v>
       </c>
       <c r="G139">
-        <v>397.4847020195828</v>
+        <v>4841525.273077096</v>
       </c>
       <c r="H139">
-        <v>740.6419587041484</v>
+        <v>3986161.924401168</v>
       </c>
       <c r="I139">
-        <v>-125.6400598552408</v>
+        <v>1116213.9887504</v>
       </c>
       <c r="J139">
-        <v>660.2919387486212</v>
+        <v>4841720.517465576</v>
       </c>
       <c r="K139">
-        <v>3057.677581552324</v>
+        <v>3986742.099912955</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,31 +5307,31 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>17.88915275965008</v>
+        <v>1116410.593771662</v>
       </c>
       <c r="G140">
-        <v>419.635980828066</v>
+        <v>4841541.785911321</v>
       </c>
       <c r="H140">
-        <v>745.6814524625609</v>
+        <v>3986174.140789207</v>
       </c>
       <c r="I140">
-        <v>-71.53787215282084</v>
+        <v>1116276.939059003</v>
       </c>
       <c r="J140">
-        <v>594.9722934278303</v>
+        <v>4841671.865822656</v>
       </c>
       <c r="K140">
-        <v>2844.072875704965</v>
+        <v>3986576.287496504</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5348,31 +5342,31 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>17.54201636518333</v>
+        <v>1116409.638900199</v>
       </c>
       <c r="G141">
-        <v>441.7872596365492</v>
+        <v>4841558.298745546</v>
       </c>
       <c r="H141">
-        <v>750.5237359041533</v>
+        <v>3986185.879113799</v>
       </c>
       <c r="I141">
-        <v>-16.10346785132908</v>
+        <v>1116341.439461043</v>
       </c>
       <c r="J141">
-        <v>529.6526481070395</v>
+        <v>4841623.214179736</v>
       </c>
       <c r="K141">
-        <v>2610.953203198694</v>
+        <v>3986395.326426068</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5383,31 +5377,31 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>17.21432562363686</v>
+        <v>1116408.737518082</v>
       </c>
       <c r="G142">
-        <v>463.9385384450323</v>
+        <v>4841574.81157977</v>
       </c>
       <c r="H142">
-        <v>755.1836643667709</v>
+        <v>3986197.175386215</v>
       </c>
       <c r="I142">
-        <v>40.69595765737025</v>
+        <v>1116407.528126144</v>
       </c>
       <c r="J142">
-        <v>464.3330027862489</v>
+        <v>4841574.562536816</v>
       </c>
       <c r="K142">
-        <v>2358.318564033512</v>
+        <v>3986199.216701645</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5418,31 +5412,31 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>16.90433105550893</v>
+        <v>1116407.884813003</v>
       </c>
       <c r="G143">
-        <v>486.0898172535154</v>
+        <v>4841591.324413995</v>
       </c>
       <c r="H143">
-        <v>759.6744754147705</v>
+        <v>3986208.061696031</v>
       </c>
       <c r="I143">
-        <v>98.8940167647079</v>
+        <v>1116475.244163822</v>
       </c>
       <c r="J143">
-        <v>399.013357465458</v>
+        <v>4841525.910893897</v>
       </c>
       <c r="K143">
-        <v>2086.168958209417</v>
+        <v>3985987.958323236</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5453,31 +5447,31 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>16.61049580786286</v>
+        <v>1116407.076557523</v>
       </c>
       <c r="G144">
-        <v>508.2410960619986</v>
+        <v>4841607.837248219</v>
       </c>
       <c r="H144">
-        <v>764.0080155383461</v>
+        <v>3986218.566760681</v>
       </c>
       <c r="I144">
-        <v>158.5251495363316</v>
+        <v>1116544.627646631</v>
       </c>
       <c r="J144">
-        <v>333.6937121446674</v>
+        <v>4841477.259250977</v>
       </c>
       <c r="K144">
-        <v>1794.504385726411</v>
+        <v>3985761.551290841</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5488,31 +5482,31 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>16.33146355443916</v>
+        <v>1116406.309020784</v>
       </c>
       <c r="G145">
-        <v>530.3923748704818</v>
+        <v>4841624.350082444</v>
       </c>
       <c r="H145">
-        <v>768.1949284838839</v>
+        <v>3986228.716381988</v>
       </c>
       <c r="I145">
-        <v>219.6246440928198</v>
+        <v>1116615.719633872</v>
       </c>
       <c r="J145">
-        <v>268.3740668238765</v>
+        <v>4841428.607608057</v>
       </c>
       <c r="K145">
-        <v>1483.324846584491</v>
+        <v>3985519.99560446</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5523,31 +5517,31 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>16.06603212471326</v>
+        <v>1116405.578895964</v>
       </c>
       <c r="G146">
-        <v>552.5436536789649</v>
+        <v>4841640.862916669</v>
       </c>
       <c r="H146">
-        <v>772.2448127536378</v>
+        <v>3986238.53382797</v>
       </c>
       <c r="I146">
-        <v>282.2286574922577</v>
+        <v>1116688.562195896</v>
       </c>
       <c r="J146">
-        <v>203.0544215030856</v>
+        <v>4841379.955965137</v>
       </c>
       <c r="K146">
-        <v>1152.63034078366</v>
+        <v>3985263.291264093</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5558,31 +5552,31 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>15.8131316918579</v>
+        <v>1116404.883240278</v>
       </c>
       <c r="G147">
-        <v>574.6949324874481</v>
+        <v>4841657.375750893</v>
       </c>
       <c r="H147">
-        <v>776.1663541397719</v>
+        <v>3986248.040154117</v>
       </c>
       <c r="I147">
-        <v>346.3742371270196</v>
+        <v>1116763.198438995</v>
       </c>
       <c r="J147">
-        <v>137.7347761822951</v>
+        <v>4841331.304322218</v>
       </c>
       <c r="K147">
-        <v>802.4208683239169</v>
+        <v>3984991.43826974</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5593,31 +5587,31 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>15.57180661682144</v>
+        <v>1116404.219425043</v>
       </c>
       <c r="G148">
-        <v>596.8462112959312</v>
+        <v>4841673.888585118</v>
       </c>
       <c r="H148">
-        <v>779.9674378960428</v>
+        <v>3986257.254475309</v>
       </c>
       <c r="I148">
-        <v>412.0993426474377</v>
+        <v>1116839.672530917</v>
       </c>
       <c r="J148">
-        <v>72.41513086150421</v>
+        <v>4841282.652679298</v>
       </c>
       <c r="K148">
-        <v>432.6964292052608</v>
+        <v>3984704.436621401</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5628,31 +5622,31 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>15.34120024586231</v>
+        <v>1116403.585093851</v>
       </c>
       <c r="G149">
-        <v>618.9974901044144</v>
+        <v>4841690.401419343</v>
       </c>
       <c r="H149">
-        <v>783.6552441896097</v>
+        <v>3986266.194197205</v>
       </c>
       <c r="I149">
-        <v>479.4428684253072</v>
+        <v>1116918.029726997</v>
       </c>
       <c r="J149">
-        <v>7.095485540713325</v>
+        <v>4841234.001036378</v>
       </c>
       <c r="K149">
-        <v>43.45702342769284</v>
+        <v>3984402.286319076</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,31 +5657,31 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>15.12054211018718</v>
+        <v>1116402.978127366</v>
       </c>
       <c r="G150">
-        <v>641.1487689128975</v>
+        <v>4841706.914253567</v>
       </c>
       <c r="H150">
-        <v>787.2363297372375</v>
+        <v>3986274.875214138</v>
       </c>
       <c r="I150">
-        <v>548.4446665705484</v>
+        <v>1116998.316396944</v>
       </c>
       <c r="J150">
-        <v>-58.22415978007725</v>
+        <v>4841185.349393459</v>
       </c>
       <c r="K150">
-        <v>-365.2973490087861</v>
+        <v>3984084.987362765</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5698,31 +5692,31 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>14.90913709175987</v>
+        <v>1116402.396613522</v>
       </c>
       <c r="G151">
-        <v>663.3000477213806</v>
+        <v>4841723.427087792</v>
       </c>
       <c r="H151">
-        <v>790.7166979581298</v>
+        <v>3986283.312079176</v>
       </c>
       <c r="I151">
-        <v>619.1455705146263</v>
+        <v>1117080.580052275</v>
       </c>
       <c r="J151">
-        <v>-123.5438051008681</v>
+        <v>4841136.69775054</v>
       </c>
       <c r="K151">
-        <v>-793.5666881041784</v>
+        <v>3983752.539752468</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,31 +5727,31 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>14.70635620813226</v>
+        <v>1116401.838822169</v>
       </c>
       <c r="G152">
-        <v>685.4513265298639</v>
+        <v>4841739.939922016</v>
       </c>
       <c r="H152">
-        <v>794.1018595288398</v>
+        <v>3986291.518150918</v>
       </c>
       <c r="I152">
-        <v>691.5874191746886</v>
+        <v>1117164.869374438</v>
       </c>
       <c r="J152">
-        <v>-188.863450421659</v>
+        <v>4841088.046107619</v>
       </c>
       <c r="K152">
-        <v>-1241.350993858484</v>
+        <v>3983404.943488184</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5768,31 +5762,31 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>14.51162873798825</v>
+        <v>1116401.303183419</v>
       </c>
       <c r="G153">
-        <v>707.602605338347</v>
+        <v>4841756.452756241</v>
       </c>
       <c r="H153">
-        <v>797.3968848741433</v>
+        <v>3986299.505720731</v>
       </c>
       <c r="I153">
-        <v>765.8130817127262</v>
+        <v>1117251.234243615</v>
       </c>
       <c r="J153">
-        <v>-254.1830957424499</v>
+        <v>4841039.3944647</v>
       </c>
       <c r="K153">
-        <v>-1708.650266271701</v>
+        <v>3983042.198569915</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,31 +5797,31 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>14.32443546285899</v>
+        <v>1116400.788269053</v>
       </c>
       <c r="G154">
-        <v>729.75388414683</v>
+        <v>4841772.965590466</v>
       </c>
       <c r="H154">
-        <v>800.6064498491677</v>
+        <v>3986307.286123496</v>
       </c>
       <c r="I154">
-        <v>841.8664829044051</v>
+        <v>1117339.725768241</v>
       </c>
       <c r="J154">
-        <v>-319.5027410632401</v>
+        <v>4840990.74282178</v>
       </c>
       <c r="K154">
-        <v>-2195.464505343827</v>
+        <v>3982664.30499766</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5838,31 +5832,31 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>14.14430284276239</v>
+        <v>1116400.292776499</v>
       </c>
       <c r="G155">
-        <v>751.9051629553134</v>
+        <v>4841789.47842469</v>
       </c>
       <c r="H155">
-        <v>803.7348756458517</v>
+        <v>3986314.869834343</v>
       </c>
       <c r="I155">
-        <v>919.7926291325838</v>
+        <v>1117430.396315249</v>
       </c>
       <c r="J155">
-        <v>-384.822386384031</v>
+        <v>4840942.091178861</v>
       </c>
       <c r="K155">
-        <v>-2701.793711074867</v>
+        <v>3982271.262771418</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5873,31 +5867,31 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>13.97079797700737</v>
+        <v>1116399.815514974</v>
       </c>
       <c r="G156">
-        <v>774.0564417637964</v>
+        <v>4841805.991258915</v>
       </c>
       <c r="H156">
-        <v>806.7861637784401</v>
+        <v>3986322.266553465</v>
       </c>
       <c r="I156">
-        <v>999.6376350208908</v>
+        <v>1117523.299541063</v>
       </c>
       <c r="J156">
-        <v>-450.1420317048219</v>
+        <v>4840893.43953594</v>
       </c>
       <c r="K156">
-        <v>-3227.637883464821</v>
+        <v>3981863.071891191</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5908,31 +5902,31 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>13.803524228085</v>
+        <v>1116399.355393443</v>
       </c>
       <c r="G157">
-        <v>796.2077205722795</v>
+        <v>4841822.50409314</v>
       </c>
       <c r="H157">
-        <v>809.7640268587028</v>
+        <v>3986329.485280714</v>
       </c>
       <c r="I157">
-        <v>1081.448750723139</v>
+        <v>1117618.490423343</v>
       </c>
       <c r="J157">
-        <v>-515.4616770256127</v>
+        <v>4840844.787893021</v>
       </c>
       <c r="K157">
-        <v>-3772.997022513687</v>
+        <v>3981439.732356978</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,31 +5937,31 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>13.64211740795575</v>
+        <v>1116398.911410129</v>
       </c>
       <c r="G158">
-        <v>818.3589993807627</v>
+        <v>4841839.016927364</v>
       </c>
       <c r="H158">
-        <v>812.671915754629</v>
+        <v>3986336.534381443</v>
       </c>
       <c r="I158">
-        <v>1165.27438988471</v>
+        <v>1117716.025293525</v>
       </c>
       <c r="J158">
-        <v>-580.7813223464036</v>
+        <v>4840796.136250101</v>
       </c>
       <c r="K158">
-        <v>-4337.871128221464</v>
+        <v>3981001.244168778</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5978,31 +5972,31 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>13.48624244327723</v>
+        <v>1116398.482643345</v>
       </c>
       <c r="G159">
-        <v>840.5102781892458</v>
+        <v>4841855.529761589</v>
       </c>
       <c r="H159">
-        <v>815.5130436308982</v>
+        <v>3986343.421644781</v>
       </c>
       <c r="I159">
-        <v>1251.164158292458</v>
+        <v>1117815.961870155</v>
       </c>
       <c r="J159">
-        <v>-646.1009676671939</v>
+        <v>4840747.484607182</v>
       </c>
       <c r="K159">
-        <v>-4922.26020058815</v>
+        <v>3980547.607326593</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,31 +6007,31 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>13.33559045008692</v>
+        <v>1116398.068243439</v>
       </c>
       <c r="G160">
-        <v>862.661556997729</v>
+        <v>4841872.042595814</v>
       </c>
       <c r="H160">
-        <v>818.2904072911268</v>
+        <v>3986350.15433537</v>
       </c>
       <c r="I160">
-        <v>1339.16888323011</v>
+        <v>1117918.359293044</v>
       </c>
       <c r="J160">
-        <v>-711.4206129879848</v>
+        <v>4840698.832964261</v>
       </c>
       <c r="K160">
-        <v>-5526.164239613752</v>
+        <v>3980078.821830421</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6039,34 @@
         <v>80</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G161">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H161">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I161">
-        <v>-1996.502375310765</v>
+        <v>1114862.248167858</v>
       </c>
       <c r="J161">
-        <v>1830.800772144207</v>
+        <v>4843223.021313026</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984370.621192668</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6074,34 @@
         <v>80</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G162">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H162">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I162">
-        <v>-1957.086102260753</v>
+        <v>1114891.862187982</v>
       </c>
       <c r="J162">
-        <v>1786.265089490598</v>
+        <v>4843174.369727335</v>
       </c>
       <c r="K162">
-        <v>297.8965775784274</v>
+        <v>3984674.41720752</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6109,34 @@
         <v>80</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G163">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H163">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I163">
-        <v>-1916.699239749191</v>
+        <v>1114922.205426108</v>
       </c>
       <c r="J163">
-        <v>1741.729406836989</v>
+        <v>4843125.718141643</v>
       </c>
       <c r="K163">
-        <v>580.9386662899044</v>
+        <v>3984963.06456052</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6144,34 @@
         <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G164">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H164">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I164">
-        <v>-1875.317887903514</v>
+        <v>1114953.295838557</v>
       </c>
       <c r="J164">
-        <v>1697.193724183379</v>
+        <v>4843077.066555953</v>
       </c>
       <c r="K164">
-        <v>849.126266134433</v>
+        <v>3985236.56325167</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6179,34 @@
         <v>80</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G165">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H165">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I165">
-        <v>-1832.917558338783</v>
+        <v>1114985.15182381</v>
       </c>
       <c r="J165">
-        <v>1652.65804152977</v>
+        <v>4843028.414970262</v>
       </c>
       <c r="K165">
-        <v>1102.459377112011</v>
+        <v>3985494.913280967</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6214,34 @@
         <v>80</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G166">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H166">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I166">
-        <v>-1789.473159666107</v>
+        <v>1115017.792233394</v>
       </c>
       <c r="J166">
-        <v>1608.122358876161</v>
+        <v>4842979.763384571</v>
       </c>
       <c r="K166">
-        <v>1340.937999222642</v>
+        <v>3985738.114648413</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6249,34 @@
         <v>80</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G167">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H167">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I167">
-        <v>-1744.958982644232</v>
+        <v>1115051.236383034</v>
       </c>
       <c r="J167">
-        <v>1563.586676222552</v>
+        <v>4842931.11179888</v>
       </c>
       <c r="K167">
-        <v>1564.562132466323</v>
+        <v>3985966.167354008</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6284,34 @@
         <v>80</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G168">
-        <v>-66.05172459871778</v>
+        <v>4841129.086976522</v>
       </c>
       <c r="H168">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I168">
-        <v>-1699.348684965484</v>
+        <v>1115085.504064091</v>
       </c>
       <c r="J168">
-        <v>1519.050993568942</v>
+        <v>4842882.460213189</v>
       </c>
       <c r="K168">
-        <v>1773.331776843055</v>
+        <v>3986179.071397751</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6319,34 @@
         <v>80</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>85.52106720942166</v>
+        <v>1116578.779118432</v>
       </c>
       <c r="G169">
-        <v>-55.14472563374003</v>
+        <v>4841145.599811163</v>
       </c>
       <c r="H169">
-        <v>737.5610166232742</v>
+        <v>3985231.950919805</v>
       </c>
       <c r="I169">
-        <v>-1652.615275667103</v>
+        <v>1115120.615555269</v>
       </c>
       <c r="J169">
-        <v>1474.515310915333</v>
+        <v>4842833.808627498</v>
       </c>
       <c r="K169">
-        <v>1967.246932352836</v>
+        <v>3986376.826779643</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6354,34 @@
         <v>80</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>66.37432473935222</v>
+        <v>1116530.098542661</v>
       </c>
       <c r="G170">
-        <v>-44.23772666876229</v>
+        <v>4841162.112645803</v>
       </c>
       <c r="H170">
-        <v>908.6702093906254</v>
+        <v>3985431.205507701</v>
       </c>
       <c r="I170">
-        <v>-1604.731099158696</v>
+        <v>1115156.591634615</v>
       </c>
       <c r="J170">
-        <v>1429.979628261724</v>
+        <v>4842785.157041808</v>
       </c>
       <c r="K170">
-        <v>2146.307598995668</v>
+        <v>3986559.433499683</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6389,34 @@
         <v>80</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>55.12657404247341</v>
+        <v>1116501.501146477</v>
       </c>
       <c r="G171">
-        <v>-33.33072770378456</v>
+        <v>4841178.625480443</v>
       </c>
       <c r="H171">
-        <v>1010.591595459197</v>
+        <v>3985549.891730519</v>
       </c>
       <c r="I171">
-        <v>-1555.667818856405</v>
+        <v>1115193.453591817</v>
       </c>
       <c r="J171">
-        <v>1385.443945608115</v>
+        <v>4842736.505456116</v>
       </c>
       <c r="K171">
-        <v>2310.513776771552</v>
+        <v>3986726.891557872</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6424,34 @@
         <v>80</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>48.02616862586238</v>
+        <v>1116483.448371995</v>
       </c>
       <c r="G172">
-        <v>-22.42372873880682</v>
+        <v>4841195.138315084</v>
       </c>
       <c r="H172">
-        <v>1083.427921479267</v>
+        <v>3985634.708752272</v>
       </c>
       <c r="I172">
-        <v>-1505.396400414059</v>
+        <v>1115231.223240803</v>
       </c>
       <c r="J172">
-        <v>1340.908262954506</v>
+        <v>4842687.853870425</v>
       </c>
       <c r="K172">
-        <v>2459.865465680487</v>
+        <v>3986879.200954209</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6459,34 @@
         <v>80</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>43.07437471055552</v>
+        <v>1116470.858440351</v>
       </c>
       <c r="G173">
-        <v>-11.51672977382907</v>
+        <v>4841211.651149725</v>
       </c>
       <c r="H173">
-        <v>1140.145529529005</v>
+        <v>3985700.755721669</v>
       </c>
       <c r="I173">
-        <v>-1453.887094541428</v>
+        <v>1115269.922932648</v>
       </c>
       <c r="J173">
-        <v>1296.372580300896</v>
+        <v>4842639.202284736</v>
       </c>
       <c r="K173">
-        <v>2594.362665722472</v>
+        <v>3987016.361688695</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6494,34 @@
         <v>80</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>39.38018816042822</v>
+        <v>1116461.465974319</v>
       </c>
       <c r="G174">
-        <v>-0.609730808851341</v>
+        <v>4841228.163984365</v>
       </c>
       <c r="H174">
-        <v>1186.601649940435</v>
+        <v>3985754.853312676</v>
       </c>
       <c r="I174">
-        <v>-1401.109419399376</v>
+        <v>1115309.575568802</v>
       </c>
       <c r="J174">
-        <v>1251.836897647287</v>
+        <v>4842590.550699045</v>
       </c>
       <c r="K174">
-        <v>2714.005376897507</v>
+        <v>3987138.37376133</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6529,34 @@
         <v>80</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>36.49185015608627</v>
+        <v>1116454.122377502</v>
       </c>
       <c r="G175">
-        <v>10.2972681561264</v>
+        <v>4841244.676819005</v>
       </c>
       <c r="H175">
-        <v>1225.946592796487</v>
+        <v>3985800.670023326</v>
       </c>
       <c r="I175">
-        <v>-1347.032142561522</v>
+        <v>1115350.204614641</v>
       </c>
       <c r="J175">
-        <v>1207.301214993678</v>
+        <v>4842541.899113353</v>
       </c>
       <c r="K175">
-        <v>2818.793599205594</v>
+        <v>3987245.237172113</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6564,34 @@
         <v>80</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>34.15497440378756</v>
+        <v>1116448.180872972</v>
       </c>
       <c r="G176">
-        <v>21.20426712110415</v>
+        <v>4841261.189653646</v>
       </c>
       <c r="H176">
-        <v>1260.071164942105</v>
+        <v>3985840.407675349</v>
       </c>
       <c r="I176">
-        <v>-1291.623262531717</v>
+        <v>1115391.834113356</v>
       </c>
       <c r="J176">
-        <v>1162.765532340069</v>
+        <v>4842493.247527663</v>
       </c>
       <c r="K176">
-        <v>2908.727332646731</v>
+        <v>3987336.951921044</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6599,34 @@
         <v>80</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>32.21453485390168</v>
+        <v>1116443.247307135</v>
       </c>
       <c r="G177">
-        <v>32.11126608608188</v>
+        <v>4841277.702488286</v>
       </c>
       <c r="H177">
-        <v>1290.199785394063</v>
+        <v>3985875.492089896</v>
       </c>
       <c r="I177">
-        <v>-1234.849989806414</v>
+        <v>1115434.488700178</v>
       </c>
       <c r="J177">
-        <v>1118.229849686459</v>
+        <v>4842444.595941972</v>
       </c>
       <c r="K177">
-        <v>2983.806577220919</v>
+        <v>3987413.518008125</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6634,34 @@
         <v>80</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>30.57015833530892</v>
+        <v>1116439.066481293</v>
       </c>
       <c r="G178">
-        <v>43.01826505105963</v>
+        <v>4841294.215322927</v>
       </c>
       <c r="H178">
-        <v>1317.170963447078</v>
+        <v>3985906.899700915</v>
       </c>
       <c r="I178">
-        <v>-1176.678727470704</v>
+        <v>1115478.19361696</v>
       </c>
       <c r="J178">
-        <v>1073.69416703285</v>
+        <v>4842395.944356281</v>
       </c>
       <c r="K178">
-        <v>3044.031332928158</v>
+        <v>3987474.935433353</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6669,34 @@
         <v>80</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>29.15368839051674</v>
+        <v>1116435.465107713</v>
       </c>
       <c r="G179">
-        <v>53.92526401603736</v>
+        <v>4841310.728157568</v>
       </c>
       <c r="H179">
-        <v>1341.584163215482</v>
+        <v>3985935.328577122</v>
       </c>
       <c r="I179">
-        <v>-1117.075051316556</v>
+        <v>1115522.974727109</v>
       </c>
       <c r="J179">
-        <v>1029.158484379241</v>
+        <v>4842347.29277059</v>
       </c>
       <c r="K179">
-        <v>3089.401599768448</v>
+        <v>3987521.20419673</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6704,34 @@
         <v>80</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>27.91703693725442</v>
+        <v>1116432.320922488</v>
       </c>
       <c r="G180">
-        <v>64.83226298101509</v>
+        <v>4841327.240992208</v>
       </c>
       <c r="H180">
-        <v>1363.882833652303</v>
+        <v>3985961.295109467</v>
       </c>
       <c r="I180">
-        <v>-1056.003689471489</v>
+        <v>1115568.858530898</v>
       </c>
       <c r="J180">
-        <v>984.6228017256317</v>
+        <v>4842298.641184899</v>
       </c>
       <c r="K180">
-        <v>3119.917377741788</v>
+        <v>3987552.324298256</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6739,34 @@
         <v>80</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>26.82519058565178</v>
+        <v>1116429.544904106</v>
       </c>
       <c r="G181">
-        <v>75.73926194599285</v>
+        <v>4841343.753826848</v>
       </c>
       <c r="H181">
-        <v>1384.404251871061</v>
+        <v>3985985.192053074</v>
       </c>
       <c r="I181">
-        <v>-993.4285015256104</v>
+        <v>1115615.872181143</v>
       </c>
       <c r="J181">
-        <v>940.0871190720226</v>
+        <v>4842249.989599208</v>
       </c>
       <c r="K181">
-        <v>3135.578666848179</v>
+        <v>3987568.295737931</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6774,34 @@
         <v>80</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>25.85197669897932</v>
+        <v>1116427.070508661</v>
       </c>
       <c r="G182">
-        <v>86.64626091097058</v>
+        <v>4841360.266661489</v>
       </c>
       <c r="H182">
-        <v>1403.410925599162</v>
+        <v>3986007.325095021</v>
       </c>
       <c r="I182">
-        <v>-929.3124571446813</v>
+        <v>1115664.043499273</v>
       </c>
       <c r="J182">
-        <v>895.5514364184132</v>
+        <v>4842201.338013518</v>
       </c>
       <c r="K182">
-        <v>3136.38546708762</v>
+        <v>3987569.118515753</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6809,34 @@
         <v>80</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>24.97739032310888</v>
+        <v>1116424.846873576</v>
       </c>
       <c r="G183">
-        <v>97.55325987594833</v>
+        <v>4841376.77949613</v>
       </c>
       <c r="H183">
-        <v>1421.111180880682</v>
+        <v>3986027.936828468</v>
       </c>
       <c r="I183">
-        <v>-863.6176141565514</v>
+        <v>1115713.400991795</v>
       </c>
       <c r="J183">
-        <v>851.015753764804</v>
+        <v>4842152.686427826</v>
       </c>
       <c r="K183">
-        <v>3122.337778460113</v>
+        <v>3987554.792631724</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6844,34 @@
         <v>80</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>24.1858455432354</v>
+        <v>1116422.834371674</v>
       </c>
       <c r="G184">
-        <v>108.4602588409261</v>
+        <v>4841393.29233077</v>
       </c>
       <c r="H184">
-        <v>1437.673117861791</v>
+        <v>3986047.223004007</v>
       </c>
       <c r="I184">
-        <v>-796.3050960979856</v>
+        <v>1115763.973867163</v>
       </c>
       <c r="J184">
-        <v>806.4800711111949</v>
+        <v>4842104.034842135</v>
       </c>
       <c r="K184">
-        <v>3093.435600965656</v>
+        <v>3987525.318085844</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6879,34 @@
         <v>80</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>23.46499622273797</v>
+        <v>1116421.001612915</v>
       </c>
       <c r="G185">
-        <v>119.3672578059038</v>
+        <v>4841409.805165411</v>
       </c>
       <c r="H185">
-        <v>1453.234343826782</v>
+        <v>3986065.343863656</v>
       </c>
       <c r="I185">
-        <v>-727.3350692086091</v>
+        <v>1115815.792053061</v>
       </c>
       <c r="J185">
-        <v>761.9443884575855</v>
+        <v>4842055.383256445</v>
       </c>
       <c r="K185">
-        <v>3049.67893460425</v>
+        <v>3987480.694878113</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6914,34 @@
         <v>80</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>22.80491947826053</v>
+        <v>1116419.323368377</v>
       </c>
       <c r="G186">
-        <v>130.2742567708815</v>
+        <v>4841426.31800005</v>
       </c>
       <c r="H186">
-        <v>1467.908929646668</v>
+        <v>3986082.432241567</v>
       </c>
       <c r="I186">
-        <v>-656.666718858343</v>
+        <v>1115868.886214114</v>
       </c>
       <c r="J186">
-        <v>717.4087058039762</v>
+        <v>4842006.731670753</v>
       </c>
       <c r="K186">
-        <v>2991.067779375895</v>
+        <v>3987420.923008529</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6949,34 @@
         <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>22.19753712628933</v>
+        <v>1116417.779099285</v>
       </c>
       <c r="G187">
-        <v>141.1812557358593</v>
+        <v>4841442.830834691</v>
       </c>
       <c r="H187">
-        <v>1481.792489060371</v>
+        <v>3986098.599478784</v>
       </c>
       <c r="I187">
-        <v>-584.2582253943921</v>
+        <v>1115923.287770038</v>
       </c>
       <c r="J187">
-        <v>672.8730231503672</v>
+        <v>4841958.080085062</v>
       </c>
       <c r="K187">
-        <v>2917.602135280591</v>
+        <v>3987346.002477095</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6984,34 @@
         <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>21.63619732364042</v>
+        <v>1116416.351893334</v>
       </c>
       <c r="G188">
-        <v>152.088254700837</v>
+        <v>4841459.343669333</v>
       </c>
       <c r="H188">
-        <v>1494.965957642529</v>
+        <v>3986113.939823806</v>
       </c>
       <c r="I188">
-        <v>-510.066739393483</v>
+        <v>1115979.028914227</v>
       </c>
       <c r="J188">
-        <v>628.3373404967579</v>
+        <v>4841909.428499373</v>
       </c>
       <c r="K188">
-        <v>2829.282002318337</v>
+        <v>3987255.93328381</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7019,34 @@
         <v>80</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>21.1153665303292</v>
+        <v>1116415.027681503</v>
       </c>
       <c r="G189">
-        <v>162.9952536658147</v>
+        <v>4841475.856503972</v>
       </c>
       <c r="H189">
-        <v>1507.498451537626</v>
+        <v>3986128.533761549</v>
       </c>
       <c r="I189">
-        <v>-434.0483563047175</v>
+        <v>1116036.142632812</v>
       </c>
       <c r="J189">
-        <v>583.8016578431485</v>
+        <v>4841860.776913682</v>
       </c>
       <c r="K189">
-        <v>2726.107380489133</v>
+        <v>3987150.715428672</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7054,34 @@
         <v>80</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>20.63039900754369</v>
+        <v>1116413.794652006</v>
       </c>
       <c r="G190">
-        <v>173.9022526307925</v>
+        <v>4841492.369338613</v>
       </c>
       <c r="H190">
-        <v>1519.449462426189</v>
+        <v>3986142.450569354</v>
       </c>
       <c r="I190">
-        <v>-356.1580904680213</v>
+        <v>1116094.662724173</v>
       </c>
       <c r="J190">
-        <v>539.2659751895394</v>
+        <v>4841812.12532799</v>
       </c>
       <c r="K190">
-        <v>2608.078269792981</v>
+        <v>3987030.348911683</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7089,34 @@
         <v>80</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>20.17736180862462</v>
+        <v>1116412.642805329</v>
       </c>
       <c r="G191">
-        <v>184.8092515957703</v>
+        <v>4841508.882173254</v>
       </c>
       <c r="H191">
-        <v>1530.870565488542</v>
+        <v>3986155.750305898</v>
       </c>
       <c r="I191">
-        <v>-276.3498484928272</v>
+        <v>1116154.623818946</v>
       </c>
       <c r="J191">
-        <v>494.7302925359301</v>
+        <v>4841763.4737423</v>
       </c>
       <c r="K191">
-        <v>2475.194670229879</v>
+        <v>3986894.833732843</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7124,34 @@
         <v>80</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>19.75290014443098</v>
+        <v>1116411.563611924</v>
       </c>
       <c r="G192">
-        <v>195.716250560748</v>
+        <v>4841525.395007893</v>
       </c>
       <c r="H192">
-        <v>1541.806764538308</v>
+        <v>3986168.485377577</v>
       </c>
       <c r="I192">
-        <v>-194.5764019812298</v>
+        <v>1116216.061400515</v>
       </c>
       <c r="J192">
-        <v>450.1946098823211</v>
+        <v>4841714.822156609</v>
       </c>
       <c r="K192">
-        <v>2327.456581799829</v>
+        <v>3986744.169892151</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7159,34 @@
         <v>80</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>19.35413256360511</v>
+        <v>1116410.549745703</v>
       </c>
       <c r="G193">
-        <v>206.6232495257257</v>
+        <v>4841541.907842535</v>
       </c>
       <c r="H193">
-        <v>1552.297563061475</v>
+        <v>3986180.701785723</v>
       </c>
       <c r="I193">
-        <v>-110.7893595794755</v>
+        <v>1116279.011826009</v>
       </c>
       <c r="J193">
-        <v>405.6589272287117</v>
+        <v>4841666.170570918</v>
       </c>
       <c r="K193">
-        <v>2164.864004502829</v>
+        <v>3986578.357389608</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7194,34 @@
         <v>80</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>18.97856845017681</v>
+        <v>1116409.594874277</v>
       </c>
       <c r="G194">
-        <v>217.5302484907035</v>
+        <v>4841558.420677175</v>
       </c>
       <c r="H194">
-        <v>1562.377825566615</v>
+        <v>3986192.440129636</v>
       </c>
       <c r="I194">
-        <v>-24.93913834124393</v>
+        <v>1116343.512347816</v>
       </c>
       <c r="J194">
-        <v>361.1232445751024</v>
+        <v>4841617.518985227</v>
       </c>
       <c r="K194">
-        <v>1987.416938338879</v>
+        <v>3986397.396225213</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7229,34 @@
         <v>80</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>18.62404243449755</v>
+        <v>1116408.693492196</v>
       </c>
       <c r="G195">
-        <v>228.4372474556812</v>
+        <v>4841574.933511815</v>
       </c>
       <c r="H195">
-        <v>1572.078476659215</v>
+        <v>3986203.736420645</v>
       </c>
       <c r="I195">
-        <v>63.02506561422399</v>
+        <v>1116409.601135634</v>
       </c>
       <c r="J195">
-        <v>316.5875619214933</v>
+        <v>4841568.867399536</v>
       </c>
       <c r="K195">
-        <v>1795.115383307981</v>
+        <v>3986201.286398967</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7264,34 @@
         <v>80</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>18.28866176856248</v>
+        <v>1116407.84078715</v>
       </c>
       <c r="G196">
-        <v>239.3442464206589</v>
+        <v>4841591.446346456</v>
       </c>
       <c r="H196">
-        <v>1581.427073198606</v>
+        <v>3986214.62274838</v>
       </c>
       <c r="I196">
-        <v>153.1553071665114</v>
+        <v>1116477.317299051</v>
       </c>
       <c r="J196">
-        <v>272.051879267884</v>
+        <v>4841520.215813845</v>
       </c>
       <c r="K196">
-        <v>1587.959339410133</v>
+        <v>3985990.02791087</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7299,34 @@
         <v>80</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>17.97076374336205</v>
+        <v>1116407.032531703</v>
       </c>
       <c r="G197">
-        <v>250.2512453856367</v>
+        <v>4841607.959181096</v>
       </c>
       <c r="H197">
-        <v>1590.448276221746</v>
+        <v>3986225.12783032</v>
       </c>
       <c r="I197">
-        <v>245.5049229987229</v>
+        <v>1116546.700910696</v>
       </c>
       <c r="J197">
-        <v>227.5161966142749</v>
+        <v>4841471.564228155</v>
       </c>
       <c r="K197">
-        <v>1365.948806645336</v>
+        <v>3985763.62076092</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7334,34 @@
         <v>80</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>17.66888096026767</v>
+        <v>1116406.264994994</v>
       </c>
       <c r="G198">
-        <v>261.1582443506144</v>
+        <v>4841624.472015737</v>
       </c>
       <c r="H198">
-        <v>1599.164242993678</v>
+        <v>3986235.277468332</v>
       </c>
       <c r="I198">
-        <v>340.128563160713</v>
+        <v>1116617.793029944</v>
       </c>
       <c r="J198">
-        <v>182.9805139606656</v>
+        <v>4841422.912642463</v>
       </c>
       <c r="K198">
-        <v>1129.083785013589</v>
+        <v>3985522.06494912</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7369,34 @@
         <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>17.38171280051839</v>
+        <v>1116405.534870202</v>
       </c>
       <c r="G199">
-        <v>272.0652433155922</v>
+        <v>4841640.984850378</v>
       </c>
       <c r="H199">
-        <v>1607.594954877229</v>
+        <v>3986245.094930474</v>
       </c>
       <c r="I199">
-        <v>437.0822234095402</v>
+        <v>1116690.635727226</v>
       </c>
       <c r="J199">
-        <v>138.4448313070563</v>
+        <v>4841374.261056772</v>
       </c>
       <c r="K199">
-        <v>877.3642745148936</v>
+        <v>3985265.360475468</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7404,34 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>17.10810182695032</v>
+        <v>1116404.839214544</v>
       </c>
       <c r="G200">
-        <v>282.9722422805699</v>
+        <v>4841657.497685017</v>
       </c>
       <c r="H200">
-        <v>1615.758493231358</v>
+        <v>3986254.601272267</v>
       </c>
       <c r="I200">
-        <v>536.4232783462613</v>
+        <v>1116765.272108914</v>
       </c>
       <c r="J200">
-        <v>93.90914865344723</v>
+        <v>4841325.609471082</v>
       </c>
       <c r="K200">
-        <v>610.7902751492492</v>
+        <v>3984993.507339965</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7439,34 @@
         <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>16.84701414124883</v>
+        <v>1116404.175399335</v>
       </c>
       <c r="G201">
-        <v>293.8792412455476</v>
+        <v>4841674.010519658</v>
       </c>
       <c r="H201">
-        <v>1623.671272920817</v>
+        <v>3986263.815608626</v>
       </c>
       <c r="I201">
-        <v>638.2105153687068</v>
+        <v>1116841.746342838</v>
       </c>
       <c r="J201">
-        <v>49.37346599983792</v>
+        <v>4841276.957885391</v>
       </c>
       <c r="K201">
-        <v>329.3617869166546</v>
+        <v>3984706.50554261</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7474,34 @@
         <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>16.59752293652157</v>
+        <v>1116403.541068167</v>
       </c>
       <c r="G202">
-        <v>304.7862402105254</v>
+        <v>4841690.523354299</v>
       </c>
       <c r="H202">
-        <v>1631.348241019784</v>
+        <v>3986272.755345236</v>
       </c>
       <c r="I202">
-        <v>742.5041694602879</v>
+        <v>1116920.103684416</v>
       </c>
       <c r="J202">
-        <v>4.837783346228615</v>
+        <v>4841228.3062997</v>
       </c>
       <c r="K202">
-        <v>33.07880981711094</v>
+        <v>3984404.355083404</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7509,34 @@
         <v>80</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>16.35879464868857</v>
+        <v>1116402.934101707</v>
       </c>
       <c r="G203">
-        <v>315.6932391755031</v>
+        <v>4841707.036188939</v>
       </c>
       <c r="H203">
-        <v>1638.803046755315</v>
+        <v>3986281.436376457</v>
       </c>
       <c r="I203">
-        <v>849.3659588354711</v>
+        <v>1117000.390503444</v>
       </c>
       <c r="J203">
-        <v>-39.69789930738048</v>
+        <v>4841179.65471401</v>
       </c>
       <c r="K203">
-        <v>-278.058656149381</v>
+        <v>3984087.055962346</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7544,34 @@
         <v>80</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>16.13007723505664</v>
+        <v>1116402.352587885</v>
       </c>
       <c r="G204">
-        <v>326.6002381404808</v>
+        <v>4841723.54902358</v>
       </c>
       <c r="H204">
-        <v>1646.04818754567</v>
+        <v>3986289.873255382</v>
       </c>
       <c r="I204">
-        <v>958.8591214629751</v>
+        <v>1117082.654311527</v>
       </c>
       <c r="J204">
-        <v>-84.23358196098978</v>
+        <v>4841131.003128319</v>
       </c>
       <c r="K204">
-        <v>-604.0506109828232</v>
+        <v>3983754.608179437</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7579,34 @@
         <v>80</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>15.91069020450112</v>
+        <v>1116401.794796555</v>
       </c>
       <c r="G205">
-        <v>337.5072371054586</v>
+        <v>4841740.06185822</v>
       </c>
       <c r="H205">
-        <v>1653.095135058484</v>
+        <v>3986298.079340631</v>
       </c>
       <c r="I205">
-        <v>1071.04845248832</v>
+        <v>1117166.943790203</v>
       </c>
       <c r="J205">
-        <v>-128.7692646145991</v>
+        <v>4841082.351542627</v>
       </c>
       <c r="K205">
-        <v>-944.8970546832154</v>
+        <v>3983407.011734676</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7614,34 @@
         <v>80</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>15.70001609815421</v>
+        <v>1116401.259157826</v>
       </c>
       <c r="G206">
-        <v>348.4142360704363</v>
+        <v>4841756.57469286</v>
       </c>
       <c r="H206">
-        <v>1659.954444481897</v>
+        <v>3986306.066923591</v>
       </c>
       <c r="I206">
-        <v>1186.000342577871</v>
+        <v>1117253.308819747</v>
       </c>
       <c r="J206">
-        <v>-173.3049472682084</v>
+        <v>4841033.699956937</v>
       </c>
       <c r="K206">
-        <v>-1300.597987250556</v>
+        <v>3983044.266628064</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7649,34 @@
         <v>80</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>15.4974931776703</v>
+        <v>1116400.74424348</v>
       </c>
       <c r="G207">
-        <v>359.3212350354141</v>
+        <v>4841773.087527501</v>
       </c>
       <c r="H207">
-        <v>1666.635849621805</v>
+        <v>3986313.847339161</v>
       </c>
       <c r="I207">
-        <v>1303.782817207077</v>
+        <v>1117341.800508689</v>
       </c>
       <c r="J207">
-        <v>-217.8406299218173</v>
+        <v>4840985.048371246</v>
       </c>
       <c r="K207">
-        <v>-1671.153408684844</v>
+        <v>3982666.3728596</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7684,34 @@
         <v>80</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>15.30260912389652</v>
+        <v>1116400.248750946</v>
       </c>
       <c r="G208">
-        <v>370.2282340003919</v>
+        <v>4841789.600362142</v>
       </c>
       <c r="H208">
-        <v>1673.14834597581</v>
+        <v>3986321.431062492</v>
       </c>
       <c r="I208">
-        <v>1424.465576916139</v>
+        <v>1117432.47122406</v>
       </c>
       <c r="J208">
-        <v>-262.3763125754266</v>
+        <v>4840936.396785555</v>
       </c>
       <c r="K208">
-        <v>-2056.563318986083</v>
+        <v>3982273.330429285</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7719,34 @@
         <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>15.11489558500677</v>
+        <v>1116399.77148944</v>
       </c>
       <c r="G209">
-        <v>381.1352329653695</v>
+        <v>4841806.113196782</v>
       </c>
       <c r="H209">
-        <v>1679.500263563103</v>
+        <v>3986328.827793788</v>
       </c>
       <c r="I209">
-        <v>1548.120038556933</v>
+        <v>1117525.374622382</v>
       </c>
       <c r="J209">
-        <v>-306.9119952290359</v>
+        <v>4840887.745199864</v>
       </c>
       <c r="K209">
-        <v>-2456.827718154272</v>
+        <v>3981865.139337119</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7754,34 @@
         <v>80</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>14.9339234420243</v>
+        <v>1116399.311367926</v>
       </c>
       <c r="G210">
-        <v>392.0422319303473</v>
+        <v>4841822.626031423</v>
       </c>
       <c r="H210">
-        <v>1685.69933098976</v>
+        <v>3986336.046532918</v>
       </c>
       <c r="I210">
-        <v>1674.819377555612</v>
+        <v>1117620.565681418</v>
       </c>
       <c r="J210">
-        <v>-351.4476778826452</v>
+        <v>4840839.093614173</v>
       </c>
       <c r="K210">
-        <v>-2871.94660618941</v>
+        <v>3981441.799583101</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7789,34 @@
         <v>80</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>14.75929868279604</v>
+        <v>1116398.867384631</v>
       </c>
       <c r="G211">
-        <v>402.9492308953251</v>
+        <v>4841839.138866063</v>
       </c>
       <c r="H211">
-        <v>1691.752731985443</v>
+        <v>3986343.09564525</v>
       </c>
       <c r="I211">
-        <v>1804.638571215881</v>
+        <v>1117718.100732708</v>
       </c>
       <c r="J211">
-        <v>-395.9833605362545</v>
+        <v>4840790.442028482</v>
       </c>
       <c r="K211">
-        <v>-3301.919983091497</v>
+        <v>3981003.311167231</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7824,34 @@
         <v>80</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>14.59065879412898</v>
+        <v>1116398.438617863</v>
       </c>
       <c r="G212">
-        <v>413.8562298603028</v>
+        <v>4841855.651700703</v>
       </c>
       <c r="H212">
-        <v>1697.667155448859</v>
+        <v>3986349.982919924</v>
       </c>
       <c r="I212">
-        <v>1937.654443088563</v>
+        <v>1117818.037494906</v>
       </c>
       <c r="J212">
-        <v>-440.5190431898634</v>
+        <v>4840741.790442792</v>
       </c>
       <c r="K212">
-        <v>-3746.74784886053</v>
+        <v>3980549.67408951</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7859,34 @@
         <v>80</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>14.4276695969126</v>
+        <v>1116398.024217973</v>
       </c>
       <c r="G213">
-        <v>424.7632288252805</v>
+        <v>4841872.164535345</v>
       </c>
       <c r="H213">
-        <v>1703.448839876266</v>
+        <v>3986356.715621594</v>
       </c>
       <c r="I213">
-        <v>2073.945708433753</v>
+        <v>1117920.435107933</v>
       </c>
       <c r="J213">
-        <v>-485.0547258434727</v>
+        <v>4840693.1388571</v>
       </c>
       <c r="K213">
-        <v>-4206.430203496516</v>
+        <v>3980080.888349938</v>
       </c>
     </row>
   </sheetData>
